--- a/errors/Error Report Inpatient.xlsx
+++ b/errors/Error Report Inpatient.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\medibot-amisys\errors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="21075" windowHeight="4170"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="21078" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1008">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -2788,12 +2793,264 @@
   </si>
   <si>
     <t>ACO</t>
+  </si>
+  <si>
+    <t>000047938-01</t>
+  </si>
+  <si>
+    <t>000060397-01</t>
+  </si>
+  <si>
+    <t>000022475-01</t>
+  </si>
+  <si>
+    <t>000030900-01</t>
+  </si>
+  <si>
+    <t>000100287-01</t>
+  </si>
+  <si>
+    <t>000000744-01</t>
+  </si>
+  <si>
+    <t>000082150-01</t>
+  </si>
+  <si>
+    <t>000003926-01</t>
+  </si>
+  <si>
+    <t>000061601-01</t>
+  </si>
+  <si>
+    <t>000023881-01</t>
+  </si>
+  <si>
+    <t>000052599-01</t>
+  </si>
+  <si>
+    <t>000006665-01</t>
+  </si>
+  <si>
+    <t>000026875-01</t>
+  </si>
+  <si>
+    <t>000106508-01</t>
+  </si>
+  <si>
+    <t>000095045-01</t>
+  </si>
+  <si>
+    <t>000116540-01</t>
+  </si>
+  <si>
+    <t>000001811-01</t>
+  </si>
+  <si>
+    <t>000076210-01</t>
+  </si>
+  <si>
+    <t>000025738-01</t>
+  </si>
+  <si>
+    <t>000021672-01</t>
+  </si>
+  <si>
+    <t>000111679-01</t>
+  </si>
+  <si>
+    <t>000080333-01</t>
+  </si>
+  <si>
+    <t>000088070-01</t>
+  </si>
+  <si>
+    <t>000002954-01</t>
+  </si>
+  <si>
+    <t>000055641-01</t>
+  </si>
+  <si>
+    <t>000007296-01</t>
+  </si>
+  <si>
+    <t>000003408-01</t>
+  </si>
+  <si>
+    <t>000033686-01</t>
+  </si>
+  <si>
+    <t>000067033-01</t>
+  </si>
+  <si>
+    <t>000057679-01</t>
+  </si>
+  <si>
+    <t>000015182-01</t>
+  </si>
+  <si>
+    <t>000079976-01</t>
+  </si>
+  <si>
+    <t>000053741-01</t>
+  </si>
+  <si>
+    <t>000104609-01</t>
+  </si>
+  <si>
+    <t>000027883-01</t>
+  </si>
+  <si>
+    <t>000090169-01</t>
+  </si>
+  <si>
+    <t>000071934-01</t>
+  </si>
+  <si>
+    <t>000072904-01</t>
+  </si>
+  <si>
+    <t>000028701-01</t>
+  </si>
+  <si>
+    <t>000012804-01</t>
+  </si>
+  <si>
+    <t>000077772-01</t>
+  </si>
+  <si>
+    <t>000015307-01</t>
+  </si>
+  <si>
+    <t>000002472-01</t>
+  </si>
+  <si>
+    <t>000046852-01</t>
+  </si>
+  <si>
+    <t>000011549-01</t>
+  </si>
+  <si>
+    <t>000084483-01</t>
+  </si>
+  <si>
+    <t>000010387-01</t>
+  </si>
+  <si>
+    <t>000098144-01</t>
+  </si>
+  <si>
+    <t>000063099-01</t>
+  </si>
+  <si>
+    <t>000107707-01</t>
+  </si>
+  <si>
+    <t>000031207-01</t>
+  </si>
+  <si>
+    <t>000097898-01</t>
+  </si>
+  <si>
+    <t>000112966-01</t>
+  </si>
+  <si>
+    <t>000037929-01</t>
+  </si>
+  <si>
+    <t>000079256-01</t>
+  </si>
+  <si>
+    <t>000049489-01</t>
+  </si>
+  <si>
+    <t>000059804-01</t>
+  </si>
+  <si>
+    <t>000106054-01</t>
+  </si>
+  <si>
+    <t>000074837-01</t>
+  </si>
+  <si>
+    <t>000065875-01</t>
+  </si>
+  <si>
+    <t>000092300-01</t>
+  </si>
+  <si>
+    <t>000105690-01</t>
+  </si>
+  <si>
+    <t>000104963-01</t>
+  </si>
+  <si>
+    <t>000027055-01</t>
+  </si>
+  <si>
+    <t>000114272-01</t>
+  </si>
+  <si>
+    <t>000048057-01</t>
+  </si>
+  <si>
+    <t>000110968-01</t>
+  </si>
+  <si>
+    <t>000008292-01</t>
+  </si>
+  <si>
+    <t>000077017-01</t>
+  </si>
+  <si>
+    <t>000000165-01</t>
+  </si>
+  <si>
+    <t>000094277-01</t>
+  </si>
+  <si>
+    <t>000084783-01</t>
+  </si>
+  <si>
+    <t>000005057-01</t>
+  </si>
+  <si>
+    <t>000064275-01</t>
+  </si>
+  <si>
+    <t>000002688-01</t>
+  </si>
+  <si>
+    <t>000116060-01</t>
+  </si>
+  <si>
+    <t>000006724-01</t>
+  </si>
+  <si>
+    <t>000022285-01</t>
+  </si>
+  <si>
+    <t>000073730-01</t>
+  </si>
+  <si>
+    <t>000028856-01</t>
+  </si>
+  <si>
+    <t>000047586-01</t>
+  </si>
+  <si>
+    <t>000052060-01</t>
+  </si>
+  <si>
+    <t>000021651-01</t>
+  </si>
+  <si>
+    <t>000051871-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2997,7 +3254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3030,9 +3287,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3065,6 +3339,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3241,26 +3532,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H654"/>
+  <dimension ref="A1:H789"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E649" sqref="E649"/>
+    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
+      <selection activeCell="E790" sqref="E790"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.15625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.68359375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.68359375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.15625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.83984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.41796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -3310,7 +3601,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -3334,7 +3625,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>13</v>
@@ -3358,7 +3649,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -3382,7 +3673,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3406,7 +3697,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -3430,7 +3721,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -3454,7 +3745,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -3478,7 +3769,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>27</v>
@@ -3502,7 +3793,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
@@ -3526,7 +3817,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>32</v>
@@ -3550,7 +3841,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
@@ -3574,7 +3865,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>37</v>
@@ -3598,7 +3889,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
@@ -3622,7 +3913,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>41</v>
@@ -3646,7 +3937,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>43</v>
@@ -3670,7 +3961,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -3694,7 +3985,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
@@ -3718,7 +4009,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
         <v>49</v>
@@ -3742,7 +4033,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>52</v>
@@ -3766,7 +4057,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>54</v>
@@ -3790,7 +4081,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>56</v>
@@ -3814,7 +4105,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>59</v>
@@ -3838,7 +4129,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>61</v>
@@ -3862,7 +4153,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="7" t="s">
         <v>63</v>
@@ -3886,7 +4177,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>65</v>
@@ -3910,7 +4201,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>67</v>
@@ -3934,7 +4225,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>69</v>
@@ -3958,7 +4249,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="7" t="s">
         <v>71</v>
@@ -3982,7 +4273,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
         <v>72</v>
@@ -4006,7 +4297,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>73</v>
@@ -4030,7 +4321,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>39</v>
@@ -4054,7 +4345,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>76</v>
@@ -4078,7 +4369,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>78</v>
@@ -4102,7 +4393,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>80</v>
@@ -4126,7 +4417,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>82</v>
@@ -4150,7 +4441,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4"/>
       <c r="B38" s="7" t="s">
         <v>84</v>
@@ -4174,7 +4465,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>85</v>
@@ -4198,7 +4489,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="7" t="s">
         <v>87</v>
@@ -4222,7 +4513,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
         <v>89</v>
@@ -4246,7 +4537,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>91</v>
@@ -4270,7 +4561,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>93</v>
@@ -4294,7 +4585,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>95</v>
@@ -4318,7 +4609,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4"/>
       <c r="B45" s="7" t="s">
         <v>97</v>
@@ -4342,7 +4633,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
         <v>99</v>
@@ -4366,7 +4657,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>101</v>
@@ -4390,7 +4681,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4"/>
       <c r="B48" s="7" t="s">
         <v>103</v>
@@ -4414,7 +4705,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4"/>
       <c r="B49" s="7" t="s">
         <v>32</v>
@@ -4438,7 +4729,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>105</v>
@@ -4462,7 +4753,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4"/>
       <c r="B51" s="7" t="s">
         <v>107</v>
@@ -4486,7 +4777,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4"/>
       <c r="B52" s="7" t="s">
         <v>109</v>
@@ -4510,7 +4801,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4"/>
       <c r="B53" s="7" t="s">
         <v>111</v>
@@ -4534,7 +4825,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4"/>
       <c r="B54" s="7" t="s">
         <v>113</v>
@@ -4558,7 +4849,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4"/>
       <c r="B55" s="7" t="s">
         <v>115</v>
@@ -4582,7 +4873,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>117</v>
@@ -4606,7 +4897,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
         <v>120</v>
@@ -4630,7 +4921,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>121</v>
@@ -4654,7 +4945,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>123</v>
@@ -4678,7 +4969,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>125</v>
@@ -4702,7 +4993,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4"/>
       <c r="B61" s="7" t="s">
         <v>126</v>
@@ -4726,7 +5017,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
       <c r="B62" s="8" t="s">
         <v>128</v>
@@ -4750,7 +5041,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>129</v>
@@ -4774,7 +5065,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>131</v>
@@ -4798,7 +5089,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4"/>
       <c r="B65" s="6" t="s">
         <v>133</v>
@@ -4822,7 +5113,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4"/>
       <c r="B66" s="6" t="s">
         <v>135</v>
@@ -4846,7 +5137,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4"/>
       <c r="B67" s="6" t="s">
         <v>123</v>
@@ -4870,7 +5161,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="7" t="s">
         <v>137</v>
@@ -4894,7 +5185,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>139</v>
@@ -4918,7 +5209,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>141</v>
@@ -4942,7 +5233,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>142</v>
@@ -4966,7 +5257,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4"/>
       <c r="B72" s="7" t="s">
         <v>145</v>
@@ -4990,7 +5281,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4"/>
       <c r="B73" s="7" t="s">
         <v>147</v>
@@ -5014,7 +5305,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4"/>
       <c r="B74" s="7" t="s">
         <v>149</v>
@@ -5038,7 +5329,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4"/>
       <c r="B75" s="7" t="s">
         <v>151</v>
@@ -5062,7 +5353,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4"/>
       <c r="B76" s="7" t="s">
         <v>153</v>
@@ -5086,7 +5377,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4"/>
       <c r="B77" s="7" t="s">
         <v>155</v>
@@ -5110,7 +5401,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4"/>
       <c r="B78" s="7" t="s">
         <v>157</v>
@@ -5134,7 +5425,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4"/>
       <c r="B79" s="7" t="s">
         <v>159</v>
@@ -5158,7 +5449,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4"/>
       <c r="B80" s="7" t="s">
         <v>161</v>
@@ -5182,7 +5473,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4"/>
       <c r="B81" s="7" t="s">
         <v>163</v>
@@ -5206,7 +5497,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4"/>
       <c r="B82" s="7" t="s">
         <v>165</v>
@@ -5230,7 +5521,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4"/>
       <c r="B83" s="7" t="s">
         <v>167</v>
@@ -5254,7 +5545,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4"/>
       <c r="B84" s="7" t="s">
         <v>169</v>
@@ -5278,7 +5569,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4"/>
       <c r="B85" s="7" t="s">
         <v>171</v>
@@ -5302,7 +5593,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4"/>
       <c r="B86" s="7" t="s">
         <v>173</v>
@@ -5326,7 +5617,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4"/>
       <c r="B87" s="7" t="s">
         <v>175</v>
@@ -5350,7 +5641,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4"/>
       <c r="B88" s="7" t="s">
         <v>177</v>
@@ -5374,7 +5665,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4"/>
       <c r="B89" s="7" t="s">
         <v>179</v>
@@ -5398,7 +5689,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4"/>
       <c r="B90" s="7" t="s">
         <v>180</v>
@@ -5422,7 +5713,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4"/>
       <c r="B91" s="7" t="s">
         <v>182</v>
@@ -5446,7 +5737,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4"/>
       <c r="B92" s="7" t="s">
         <v>184</v>
@@ -5470,7 +5761,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4"/>
       <c r="B93" s="7" t="s">
         <v>186</v>
@@ -5494,7 +5785,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4"/>
       <c r="B94" s="7" t="s">
         <v>188</v>
@@ -5518,7 +5809,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4"/>
       <c r="B95" s="7" t="s">
         <v>190</v>
@@ -5542,7 +5833,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4"/>
       <c r="B96" s="7" t="s">
         <v>192</v>
@@ -5566,7 +5857,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4"/>
       <c r="B97" s="7" t="s">
         <v>194</v>
@@ -5590,7 +5881,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4"/>
       <c r="B98" s="7" t="s">
         <v>196</v>
@@ -5614,7 +5905,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4"/>
       <c r="B99" s="7" t="s">
         <v>198</v>
@@ -5638,7 +5929,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4"/>
       <c r="B100" s="7" t="s">
         <v>200</v>
@@ -5662,7 +5953,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4"/>
       <c r="B101" s="7" t="s">
         <v>202</v>
@@ -5686,7 +5977,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4"/>
       <c r="B102" s="7" t="s">
         <v>204</v>
@@ -5710,7 +6001,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4"/>
       <c r="B103" s="7" t="s">
         <v>206</v>
@@ -5734,7 +6025,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4"/>
       <c r="B104" s="7" t="s">
         <v>208</v>
@@ -5758,7 +6049,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4"/>
       <c r="B105" s="7" t="s">
         <v>210</v>
@@ -5782,7 +6073,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4"/>
       <c r="B106" s="7" t="s">
         <v>211</v>
@@ -5806,7 +6097,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4"/>
       <c r="B107" s="7" t="s">
         <v>213</v>
@@ -5830,7 +6121,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4"/>
       <c r="B108" s="7" t="s">
         <v>215</v>
@@ -5854,7 +6145,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4"/>
       <c r="B109" s="7" t="s">
         <v>217</v>
@@ -5878,7 +6169,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4"/>
       <c r="B110" s="7" t="s">
         <v>219</v>
@@ -5902,7 +6193,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4"/>
       <c r="B111" s="7" t="s">
         <v>220</v>
@@ -5926,7 +6217,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4"/>
       <c r="B112" s="7" t="s">
         <v>222</v>
@@ -5950,7 +6241,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4"/>
       <c r="B113" s="7" t="s">
         <v>224</v>
@@ -5974,7 +6265,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4"/>
       <c r="B114" s="7" t="s">
         <v>226</v>
@@ -5998,7 +6289,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4"/>
       <c r="B115" s="7" t="s">
         <v>227</v>
@@ -6022,7 +6313,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4"/>
       <c r="B116" s="7" t="s">
         <v>229</v>
@@ -6046,7 +6337,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4"/>
       <c r="B117" s="7" t="s">
         <v>231</v>
@@ -6070,7 +6361,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4"/>
       <c r="B118" s="7" t="s">
         <v>233</v>
@@ -6094,7 +6385,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4"/>
       <c r="B119" s="7" t="s">
         <v>235</v>
@@ -6118,7 +6409,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4"/>
       <c r="B120" s="7" t="s">
         <v>236</v>
@@ -6142,7 +6433,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4"/>
       <c r="B121" s="7" t="s">
         <v>238</v>
@@ -6166,7 +6457,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4"/>
       <c r="B122" s="7" t="s">
         <v>240</v>
@@ -6190,7 +6481,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4"/>
       <c r="B123" s="7" t="s">
         <v>242</v>
@@ -6214,7 +6505,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4"/>
       <c r="B124" s="7" t="s">
         <v>244</v>
@@ -6238,7 +6529,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4"/>
       <c r="B125" s="7" t="s">
         <v>246</v>
@@ -6262,7 +6553,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4"/>
       <c r="B126" s="7" t="s">
         <v>248</v>
@@ -6286,7 +6577,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4"/>
       <c r="B127" s="7" t="s">
         <v>250</v>
@@ -6310,7 +6601,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4"/>
       <c r="B128" s="7" t="s">
         <v>251</v>
@@ -6334,7 +6625,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4"/>
       <c r="B129" s="7" t="s">
         <v>253</v>
@@ -6358,7 +6649,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4"/>
       <c r="B130" s="7" t="s">
         <v>255</v>
@@ -6382,7 +6673,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4"/>
       <c r="B131" s="7" t="s">
         <v>256</v>
@@ -6406,7 +6697,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4"/>
       <c r="B132" s="7" t="s">
         <v>258</v>
@@ -6430,7 +6721,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4"/>
       <c r="B133" s="7" t="s">
         <v>259</v>
@@ -6454,7 +6745,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4"/>
       <c r="B134" s="7" t="s">
         <v>261</v>
@@ -6478,7 +6769,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4"/>
       <c r="B135" s="7" t="s">
         <v>263</v>
@@ -6502,7 +6793,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4"/>
       <c r="B136" s="7" t="s">
         <v>264</v>
@@ -6526,7 +6817,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4"/>
       <c r="B137" s="7" t="s">
         <v>266</v>
@@ -6550,7 +6841,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4"/>
       <c r="B138" s="7" t="s">
         <v>268</v>
@@ -6574,7 +6865,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4"/>
       <c r="B139" s="7" t="s">
         <v>269</v>
@@ -6598,7 +6889,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
         <v>271</v>
@@ -6622,7 +6913,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4"/>
       <c r="B141" s="7" t="s">
         <v>273</v>
@@ -6646,7 +6937,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4"/>
       <c r="B142" s="7" t="s">
         <v>275</v>
@@ -6670,7 +6961,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4"/>
       <c r="B143" s="7" t="s">
         <v>277</v>
@@ -6694,7 +6985,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4"/>
       <c r="B144" s="7" t="s">
         <v>279</v>
@@ -6718,7 +7009,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4"/>
       <c r="B145" s="7" t="s">
         <v>280</v>
@@ -6742,7 +7033,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
         <v>281</v>
@@ -6766,7 +7057,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4"/>
       <c r="B147" s="7" t="s">
         <v>282</v>
@@ -6790,7 +7081,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4"/>
       <c r="B148" s="7" t="s">
         <v>284</v>
@@ -6814,7 +7105,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="4"/>
       <c r="B149" s="7" t="s">
         <v>286</v>
@@ -6838,7 +7129,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4"/>
       <c r="B150" s="7" t="s">
         <v>288</v>
@@ -6862,7 +7153,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="4"/>
       <c r="B151" s="7" t="s">
         <v>290</v>
@@ -6886,7 +7177,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="4"/>
       <c r="B152" s="7" t="s">
         <v>292</v>
@@ -6910,7 +7201,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="4"/>
       <c r="B153" s="7" t="s">
         <v>294</v>
@@ -6934,7 +7225,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4"/>
       <c r="B154" s="5" t="s">
         <v>296</v>
@@ -6958,7 +7249,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="4"/>
       <c r="B155" s="7" t="s">
         <v>298</v>
@@ -6982,7 +7273,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4"/>
       <c r="B156" s="7" t="s">
         <v>299</v>
@@ -7006,7 +7297,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="4"/>
       <c r="B157" s="7" t="s">
         <v>301</v>
@@ -7030,7 +7321,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4"/>
       <c r="B158" s="7" t="s">
         <v>248</v>
@@ -7054,7 +7345,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="4"/>
       <c r="B159" s="5" t="s">
         <v>304</v>
@@ -7078,7 +7369,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="4"/>
       <c r="B160" s="7" t="s">
         <v>306</v>
@@ -7102,7 +7393,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="4"/>
       <c r="B161" s="7" t="s">
         <v>308</v>
@@ -7126,7 +7417,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="4"/>
       <c r="B162" s="7" t="s">
         <v>310</v>
@@ -7150,7 +7441,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="4"/>
       <c r="B163" s="7" t="s">
         <v>312</v>
@@ -7174,7 +7465,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="4"/>
       <c r="B164" s="7" t="s">
         <v>314</v>
@@ -7198,7 +7489,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="4"/>
       <c r="B165" s="7" t="s">
         <v>316</v>
@@ -7222,7 +7513,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="4"/>
       <c r="B166" s="7" t="s">
         <v>318</v>
@@ -7246,7 +7537,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="4"/>
       <c r="B167" s="7" t="s">
         <v>319</v>
@@ -7270,7 +7561,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="4"/>
       <c r="B168" s="7" t="s">
         <v>321</v>
@@ -7294,7 +7585,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="4"/>
       <c r="B169" s="7" t="s">
         <v>323</v>
@@ -7318,7 +7609,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="4"/>
       <c r="B170" s="5" t="s">
         <v>325</v>
@@ -7342,7 +7633,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="4"/>
       <c r="B171" s="7" t="s">
         <v>326</v>
@@ -7366,7 +7657,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="4"/>
       <c r="B172" s="7" t="s">
         <v>328</v>
@@ -7390,7 +7681,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="4"/>
       <c r="B173" s="7" t="s">
         <v>330</v>
@@ -7414,7 +7705,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="4"/>
       <c r="B174" s="7" t="s">
         <v>332</v>
@@ -7438,7 +7729,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="4"/>
       <c r="B175" s="7" t="s">
         <v>334</v>
@@ -7462,7 +7753,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="4"/>
       <c r="B176" s="7" t="s">
         <v>335</v>
@@ -7486,7 +7777,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="4"/>
       <c r="B177" s="7" t="s">
         <v>337</v>
@@ -7510,7 +7801,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="4"/>
       <c r="B178" s="7" t="s">
         <v>338</v>
@@ -7534,7 +7825,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="4"/>
       <c r="B179" s="7" t="s">
         <v>339</v>
@@ -7558,7 +7849,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="4"/>
       <c r="B180" s="7" t="s">
         <v>340</v>
@@ -7582,7 +7873,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="4"/>
       <c r="B181" s="7" t="s">
         <v>342</v>
@@ -7606,7 +7897,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="4"/>
       <c r="B182" s="7" t="s">
         <v>135</v>
@@ -7630,7 +7921,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="4"/>
       <c r="B183" s="7" t="s">
         <v>344</v>
@@ -7654,7 +7945,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="4"/>
       <c r="B184" s="7" t="s">
         <v>346</v>
@@ -7678,7 +7969,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="4"/>
       <c r="B185" s="7" t="s">
         <v>348</v>
@@ -7702,7 +7993,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="4"/>
       <c r="B186" s="7" t="s">
         <v>350</v>
@@ -7726,7 +8017,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="4"/>
       <c r="B187" s="7" t="s">
         <v>352</v>
@@ -7750,7 +8041,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="4"/>
       <c r="B188" s="5" t="s">
         <v>354</v>
@@ -7774,7 +8065,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="4"/>
       <c r="B189" s="7" t="s">
         <v>356</v>
@@ -7798,7 +8089,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
         <v>358</v>
@@ -7822,7 +8113,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="4"/>
       <c r="B191" s="7" t="s">
         <v>360</v>
@@ -7846,7 +8137,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="4"/>
       <c r="B192" s="7" t="s">
         <v>361</v>
@@ -7870,7 +8161,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="4"/>
       <c r="B193" s="7" t="s">
         <v>363</v>
@@ -7894,7 +8185,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="4"/>
       <c r="B194" s="7" t="s">
         <v>364</v>
@@ -7918,7 +8209,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="4"/>
       <c r="B195" s="7" t="s">
         <v>366</v>
@@ -7942,7 +8233,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="4"/>
       <c r="B196" s="7" t="s">
         <v>368</v>
@@ -7966,7 +8257,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="4"/>
       <c r="B197" s="7" t="s">
         <v>370</v>
@@ -7990,7 +8281,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="4"/>
       <c r="B198" s="7" t="s">
         <v>372</v>
@@ -8014,7 +8305,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="4"/>
       <c r="B199" s="7" t="s">
         <v>135</v>
@@ -8038,7 +8329,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="4"/>
       <c r="B200" s="7" t="s">
         <v>375</v>
@@ -8062,7 +8353,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="4"/>
       <c r="B201" s="7" t="s">
         <v>377</v>
@@ -8086,7 +8377,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="4"/>
       <c r="B202" s="7" t="s">
         <v>379</v>
@@ -8110,7 +8401,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="4"/>
       <c r="B203" s="7" t="s">
         <v>380</v>
@@ -8134,7 +8425,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>42869</v>
       </c>
@@ -8158,7 +8449,7 @@
       </c>
       <c r="H205" s="13"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="s">
         <v>382</v>
@@ -8180,7 +8471,7 @@
       </c>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="s">
         <v>384</v>
@@ -8202,7 +8493,7 @@
       </c>
       <c r="H207" s="13"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="s">
         <v>386</v>
@@ -8224,7 +8515,7 @@
       </c>
       <c r="H208" s="13"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="s">
         <v>388</v>
@@ -8246,7 +8537,7 @@
       </c>
       <c r="H209" s="13"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="s">
         <v>390</v>
@@ -8268,7 +8559,7 @@
       </c>
       <c r="H210" s="13"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="s">
         <v>392</v>
@@ -8290,7 +8581,7 @@
       </c>
       <c r="H211" s="13"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="s">
         <v>394</v>
@@ -8312,7 +8603,7 @@
       </c>
       <c r="H212" s="13"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="s">
         <v>396</v>
@@ -8334,7 +8625,7 @@
       </c>
       <c r="H213" s="13"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="s">
         <v>398</v>
@@ -8356,7 +8647,7 @@
       </c>
       <c r="H214" s="13"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="s">
         <v>399</v>
@@ -8378,7 +8669,7 @@
       </c>
       <c r="H215" s="13"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="s">
         <v>401</v>
@@ -8400,7 +8691,7 @@
       </c>
       <c r="H216" s="13"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="s">
         <v>402</v>
@@ -8422,7 +8713,7 @@
       </c>
       <c r="H217" s="13"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="s">
         <v>404</v>
@@ -8444,7 +8735,7 @@
       </c>
       <c r="H218" s="13"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>406</v>
@@ -8466,7 +8757,7 @@
       </c>
       <c r="H219" s="13"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="s">
         <v>407</v>
@@ -8488,7 +8779,7 @@
       </c>
       <c r="H220" s="13"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="s">
         <v>409</v>
@@ -8510,7 +8801,7 @@
       </c>
       <c r="H221" s="13"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="s">
         <v>411</v>
@@ -8532,7 +8823,7 @@
       </c>
       <c r="H222" s="13"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="s">
         <v>413</v>
@@ -8554,7 +8845,7 @@
       </c>
       <c r="H223" s="13"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="s">
         <v>415</v>
@@ -8576,7 +8867,7 @@
       </c>
       <c r="H224" s="13"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="s">
         <v>417</v>
@@ -8598,7 +8889,7 @@
       </c>
       <c r="H225" s="13"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="s">
         <v>418</v>
@@ -8620,7 +8911,7 @@
       </c>
       <c r="H226" s="13"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="s">
         <v>420</v>
@@ -8642,7 +8933,7 @@
       </c>
       <c r="H227" s="13"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="s">
         <v>422</v>
@@ -8664,7 +8955,7 @@
       </c>
       <c r="H228" s="13"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="s">
         <v>424</v>
@@ -8686,7 +8977,7 @@
       </c>
       <c r="H229" s="13"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="s">
         <v>426</v>
@@ -8708,7 +8999,7 @@
       </c>
       <c r="H230" s="13"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="s">
         <v>427</v>
@@ -8730,7 +9021,7 @@
       </c>
       <c r="H231" s="13"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="s">
         <v>429</v>
@@ -8752,7 +9043,7 @@
       </c>
       <c r="H232" s="13"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
         <v>430</v>
@@ -8774,7 +9065,7 @@
       </c>
       <c r="H233" s="13"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="s">
         <v>431</v>
@@ -8796,7 +9087,7 @@
       </c>
       <c r="H234" s="13"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="s">
         <v>433</v>
@@ -8818,7 +9109,7 @@
       </c>
       <c r="H235" s="13"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>435</v>
@@ -8840,7 +9131,7 @@
       </c>
       <c r="H236" s="13"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="s">
         <v>437</v>
@@ -8862,7 +9153,7 @@
       </c>
       <c r="H237" s="13"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="s">
         <v>439</v>
@@ -8884,7 +9175,7 @@
       </c>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="s">
         <v>440</v>
@@ -8906,7 +9197,7 @@
       </c>
       <c r="H239" s="13"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="s">
         <v>442</v>
@@ -8928,7 +9219,7 @@
       </c>
       <c r="H240" s="13"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="s">
         <v>443</v>
@@ -8950,7 +9241,7 @@
       </c>
       <c r="H241" s="13"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
         <v>445</v>
@@ -8972,7 +9263,7 @@
       </c>
       <c r="H242" s="13"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="s">
         <v>446</v>
@@ -8994,7 +9285,7 @@
       </c>
       <c r="H243" s="13"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="s">
         <v>448</v>
@@ -9016,7 +9307,7 @@
       </c>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
         <v>450</v>
@@ -9038,7 +9329,7 @@
       </c>
       <c r="H245" s="13"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="s">
         <v>451</v>
@@ -9060,7 +9351,7 @@
       </c>
       <c r="H246" s="13"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="s">
         <v>452</v>
@@ -9082,7 +9373,7 @@
       </c>
       <c r="H247" s="13"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="s">
         <v>454</v>
@@ -9104,7 +9395,7 @@
       </c>
       <c r="H248" s="13"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="s">
         <v>456</v>
@@ -9126,7 +9417,7 @@
       </c>
       <c r="H249" s="13"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="s">
         <v>458</v>
@@ -9148,7 +9439,7 @@
       </c>
       <c r="H250" s="13"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="s">
         <v>460</v>
@@ -9170,7 +9461,7 @@
       </c>
       <c r="H251" s="13"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="s">
         <v>461</v>
@@ -9192,7 +9483,7 @@
       </c>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="s">
         <v>463</v>
@@ -9214,7 +9505,7 @@
       </c>
       <c r="H253" s="13"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="s">
         <v>465</v>
@@ -9236,7 +9527,7 @@
       </c>
       <c r="H254" s="13"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
         <v>467</v>
@@ -9258,7 +9549,7 @@
       </c>
       <c r="H255" s="13"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
         <v>469</v>
@@ -9280,7 +9571,7 @@
       </c>
       <c r="H256" s="13"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="s">
         <v>470</v>
@@ -9302,7 +9593,7 @@
       </c>
       <c r="H257" s="13"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="s">
         <v>472</v>
@@ -9324,7 +9615,7 @@
       </c>
       <c r="H258" s="13"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="13"/>
       <c r="B259" s="13" t="s">
         <v>384</v>
@@ -9346,7 +9637,7 @@
       </c>
       <c r="H259" s="13"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
         <v>475</v>
@@ -9368,7 +9659,7 @@
       </c>
       <c r="H260" s="13"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="13"/>
       <c r="B261" s="11" t="s">
         <v>476</v>
@@ -9392,7 +9683,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="13"/>
       <c r="B262" s="12" t="s">
         <v>478</v>
@@ -9416,7 +9707,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="13"/>
       <c r="B263" s="11" t="s">
         <v>78</v>
@@ -9440,7 +9731,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="13"/>
       <c r="B264" s="11" t="s">
         <v>481</v>
@@ -9464,7 +9755,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="13"/>
       <c r="B265" s="11" t="s">
         <v>483</v>
@@ -9488,7 +9779,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="13"/>
       <c r="B266" s="11" t="s">
         <v>485</v>
@@ -9512,7 +9803,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="13"/>
       <c r="B267" s="11" t="s">
         <v>487</v>
@@ -9536,7 +9827,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="13"/>
       <c r="B268" s="12" t="s">
         <v>489</v>
@@ -9560,7 +9851,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="13"/>
       <c r="B269" s="11" t="s">
         <v>491</v>
@@ -9584,7 +9875,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="13"/>
       <c r="B270" s="11" t="s">
         <v>258</v>
@@ -9608,7 +9899,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="13"/>
       <c r="B271" s="11" t="s">
         <v>494</v>
@@ -9632,7 +9923,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="13"/>
       <c r="B272" s="11" t="s">
         <v>495</v>
@@ -9656,7 +9947,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="13"/>
       <c r="B273" s="11" t="s">
         <v>497</v>
@@ -9680,7 +9971,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
         <v>499</v>
@@ -9704,7 +9995,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>42870</v>
       </c>
@@ -9716,7 +10007,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="13"/>
       <c r="B276" s="13" t="s">
         <v>501</v>
@@ -9738,7 +10029,7 @@
       </c>
       <c r="H276" s="13"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="13"/>
       <c r="B277" s="13" t="s">
         <v>502</v>
@@ -9760,7 +10051,7 @@
       </c>
       <c r="H277" s="13"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="13"/>
       <c r="B278" s="13" t="s">
         <v>504</v>
@@ -9782,7 +10073,7 @@
       </c>
       <c r="H278" s="13"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>505</v>
@@ -9806,7 +10097,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="13"/>
       <c r="B280" s="11" t="s">
         <v>194</v>
@@ -9830,7 +10121,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
         <v>507</v>
@@ -9854,7 +10145,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
         <v>508</v>
@@ -9878,7 +10169,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="13"/>
       <c r="B283" s="12" t="s">
         <v>509</v>
@@ -9902,7 +10193,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="13"/>
       <c r="B284" s="11" t="s">
         <v>510</v>
@@ -9926,7 +10217,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="13"/>
       <c r="B285" s="11" t="s">
         <v>512</v>
@@ -9950,7 +10241,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="13"/>
       <c r="B286" s="12" t="s">
         <v>514</v>
@@ -9974,7 +10265,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="13"/>
       <c r="B287" s="11" t="s">
         <v>516</v>
@@ -9998,7 +10289,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="13"/>
       <c r="B288" s="11" t="s">
         <v>518</v>
@@ -10022,7 +10313,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="13"/>
       <c r="B289" s="11" t="s">
         <v>520</v>
@@ -10046,7 +10337,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="13"/>
       <c r="B290" s="11" t="s">
         <v>521</v>
@@ -10070,7 +10361,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="13"/>
       <c r="B291" s="11" t="s">
         <v>523</v>
@@ -10094,7 +10385,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="13"/>
       <c r="B292" s="11" t="s">
         <v>525</v>
@@ -10118,7 +10409,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="13"/>
       <c r="B293" s="11" t="s">
         <v>526</v>
@@ -10142,7 +10433,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="13"/>
       <c r="B294" s="11" t="s">
         <v>528</v>
@@ -10166,7 +10457,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="13"/>
       <c r="B295" s="13" t="s">
         <v>530</v>
@@ -10188,7 +10479,7 @@
       </c>
       <c r="H295" s="13"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="13"/>
       <c r="B296" s="13" t="s">
         <v>532</v>
@@ -10210,7 +10501,7 @@
       </c>
       <c r="H296" s="13"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="13"/>
       <c r="B297" s="13" t="s">
         <v>533</v>
@@ -10232,7 +10523,7 @@
       </c>
       <c r="H297" s="13"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="13"/>
       <c r="B298" s="13" t="s">
         <v>533</v>
@@ -10254,7 +10545,7 @@
       </c>
       <c r="H298" s="13"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="13"/>
       <c r="B299" s="13" t="s">
         <v>250</v>
@@ -10276,7 +10567,7 @@
       </c>
       <c r="H299" s="13"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="13"/>
       <c r="B300" s="13" t="s">
         <v>240</v>
@@ -10298,7 +10589,7 @@
       </c>
       <c r="H300" s="13"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="13"/>
       <c r="B301" s="13" t="s">
         <v>536</v>
@@ -10320,7 +10611,7 @@
       </c>
       <c r="H301" s="13"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="13"/>
       <c r="B302" s="13" t="s">
         <v>537</v>
@@ -10342,7 +10633,7 @@
       </c>
       <c r="H302" s="13"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="13"/>
       <c r="B303" s="13" t="s">
         <v>539</v>
@@ -10364,7 +10655,7 @@
       </c>
       <c r="H303" s="13"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="13"/>
       <c r="B304" s="13" t="s">
         <v>541</v>
@@ -10386,7 +10677,7 @@
       </c>
       <c r="H304" s="13"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>42871</v>
       </c>
@@ -10398,7 +10689,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="s">
         <v>543</v>
@@ -10420,7 +10711,7 @@
       </c>
       <c r="H306" s="13"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="s">
         <v>544</v>
@@ -10442,7 +10733,7 @@
       </c>
       <c r="H307" s="13"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="s">
         <v>546</v>
@@ -10464,7 +10755,7 @@
       </c>
       <c r="H308" s="13"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="13"/>
       <c r="B309" s="13" t="s">
         <v>548</v>
@@ -10486,7 +10777,7 @@
       </c>
       <c r="H309" s="13"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="13"/>
       <c r="B310" s="13" t="s">
         <v>550</v>
@@ -10508,7 +10799,7 @@
       </c>
       <c r="H310" s="13"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="13"/>
       <c r="B311" s="12" t="s">
         <v>552</v>
@@ -10532,7 +10823,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="13"/>
       <c r="B312" s="11" t="s">
         <v>554</v>
@@ -10556,7 +10847,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="13"/>
       <c r="B313" s="11" t="s">
         <v>555</v>
@@ -10580,7 +10871,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="13"/>
       <c r="B314" s="11" t="s">
         <v>557</v>
@@ -10604,7 +10895,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="13"/>
       <c r="B315" s="15" t="s">
         <v>558</v>
@@ -10628,7 +10919,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="13"/>
       <c r="B316" s="11" t="s">
         <v>560</v>
@@ -10652,7 +10943,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="13"/>
       <c r="B317" s="11" t="s">
         <v>562</v>
@@ -10676,7 +10967,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="13"/>
       <c r="B318" s="11" t="s">
         <v>564</v>
@@ -10700,7 +10991,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="13"/>
       <c r="B319" s="11" t="s">
         <v>566</v>
@@ -10724,7 +11015,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="13"/>
       <c r="B320" s="11" t="s">
         <v>568</v>
@@ -10748,7 +11039,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>42872</v>
       </c>
@@ -10760,7 +11051,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="13"/>
       <c r="B322" s="13" t="s">
         <v>569</v>
@@ -10782,7 +11073,7 @@
       </c>
       <c r="H322" s="13"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="13"/>
       <c r="B323" s="13" t="s">
         <v>570</v>
@@ -10804,7 +11095,7 @@
       </c>
       <c r="H323" s="13"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="13"/>
       <c r="B324" s="13" t="s">
         <v>571</v>
@@ -10826,7 +11117,7 @@
       </c>
       <c r="H324" s="13"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="13"/>
       <c r="B325" s="13" t="s">
         <v>573</v>
@@ -10848,7 +11139,7 @@
       </c>
       <c r="H325" s="13"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="13"/>
       <c r="B326" s="13" t="s">
         <v>574</v>
@@ -10870,7 +11161,7 @@
       </c>
       <c r="H326" s="13"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="13"/>
       <c r="B327" s="13" t="s">
         <v>576</v>
@@ -10892,7 +11183,7 @@
       </c>
       <c r="H327" s="13"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="13"/>
       <c r="B328" s="13" t="s">
         <v>577</v>
@@ -10914,7 +11205,7 @@
       </c>
       <c r="H328" s="13"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="13"/>
       <c r="B329" s="13" t="s">
         <v>579</v>
@@ -10936,7 +11227,7 @@
       </c>
       <c r="H329" s="13"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="13"/>
       <c r="B330" s="11" t="s">
         <v>580</v>
@@ -10960,7 +11251,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="13"/>
       <c r="B331" s="11" t="s">
         <v>582</v>
@@ -10984,7 +11275,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="13"/>
       <c r="B332" s="11" t="s">
         <v>584</v>
@@ -11008,7 +11299,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>586</v>
@@ -11032,7 +11323,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="13"/>
       <c r="B334" s="11" t="s">
         <v>588</v>
@@ -11056,7 +11347,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="13"/>
       <c r="B335" s="11" t="s">
         <v>590</v>
@@ -11080,7 +11371,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="13"/>
       <c r="B336" s="11" t="s">
         <v>592</v>
@@ -11104,7 +11395,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="13"/>
       <c r="B337" s="11" t="s">
         <v>594</v>
@@ -11128,7 +11419,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="13"/>
       <c r="B338" s="11" t="s">
         <v>596</v>
@@ -11152,7 +11443,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="13"/>
       <c r="B339" s="11" t="s">
         <v>598</v>
@@ -11176,7 +11467,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="13"/>
       <c r="B340" s="12" t="s">
         <v>600</v>
@@ -11200,7 +11491,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="13"/>
       <c r="B341" s="12" t="s">
         <v>602</v>
@@ -11224,7 +11515,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="13"/>
       <c r="B342" s="11" t="s">
         <v>604</v>
@@ -11248,7 +11539,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="13"/>
       <c r="B343" s="11" t="s">
         <v>606</v>
@@ -11272,7 +11563,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="13"/>
       <c r="B344" s="11" t="s">
         <v>608</v>
@@ -11296,7 +11587,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>42873</v>
       </c>
@@ -11308,7 +11599,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="13"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="13"/>
       <c r="B346" s="13" t="s">
         <v>610</v>
@@ -11330,7 +11621,7 @@
       </c>
       <c r="H346" s="13"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="13"/>
       <c r="B347" s="13" t="s">
         <v>611</v>
@@ -11352,7 +11643,7 @@
       </c>
       <c r="H347" s="13"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="13"/>
       <c r="B348" s="11" t="s">
         <v>612</v>
@@ -11376,7 +11667,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="13"/>
       <c r="B349" s="12" t="s">
         <v>613</v>
@@ -11400,7 +11691,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="13"/>
       <c r="B350" s="11" t="s">
         <v>615</v>
@@ -11424,7 +11715,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="13"/>
       <c r="B351" s="11" t="s">
         <v>616</v>
@@ -11448,7 +11739,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="13"/>
       <c r="B352" s="11" t="s">
         <v>617</v>
@@ -11472,7 +11763,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="13"/>
       <c r="B353" s="11" t="s">
         <v>619</v>
@@ -11496,7 +11787,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="13"/>
       <c r="B354" s="11" t="s">
         <v>621</v>
@@ -11520,7 +11811,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="13"/>
       <c r="B355" s="15" t="s">
         <v>226</v>
@@ -11544,7 +11835,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="13"/>
       <c r="B356" s="11" t="s">
         <v>624</v>
@@ -11568,7 +11859,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="13"/>
       <c r="B357" s="12" t="s">
         <v>625</v>
@@ -11592,7 +11883,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>42874</v>
       </c>
@@ -11604,7 +11895,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="13"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="13"/>
       <c r="B359" s="13" t="s">
         <v>629</v>
@@ -11626,7 +11917,7 @@
       </c>
       <c r="H359" s="13"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="13"/>
       <c r="B360" s="13" t="s">
         <v>631</v>
@@ -11648,7 +11939,7 @@
       </c>
       <c r="H360" s="13"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="13"/>
       <c r="B361" s="13" t="s">
         <v>632</v>
@@ -11670,7 +11961,7 @@
       </c>
       <c r="H361" s="13"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="13"/>
       <c r="B362" s="13" t="s">
         <v>633</v>
@@ -11692,7 +11983,7 @@
       </c>
       <c r="H362" s="13"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="13"/>
       <c r="B363" s="13" t="s">
         <v>634</v>
@@ -11714,7 +12005,7 @@
       </c>
       <c r="H363" s="13"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="13"/>
       <c r="B364" s="13" t="s">
         <v>636</v>
@@ -11736,7 +12027,7 @@
       </c>
       <c r="H364" s="13"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="13"/>
       <c r="B365" s="13" t="s">
         <v>638</v>
@@ -11758,7 +12049,7 @@
       </c>
       <c r="H365" s="13"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>640</v>
@@ -11782,7 +12073,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="13"/>
       <c r="B367" s="12" t="s">
         <v>93</v>
@@ -11806,7 +12097,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="13"/>
       <c r="B368" s="11" t="s">
         <v>642</v>
@@ -11830,7 +12121,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="13"/>
       <c r="B369" s="11" t="s">
         <v>494</v>
@@ -11854,7 +12145,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="13"/>
       <c r="B370" s="15" t="s">
         <v>645</v>
@@ -11878,7 +12169,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="13"/>
       <c r="B371" s="11" t="s">
         <v>647</v>
@@ -11902,7 +12193,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="13"/>
       <c r="B372" s="12" t="s">
         <v>649</v>
@@ -11926,7 +12217,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="13"/>
       <c r="B373" s="14" t="s">
         <v>651</v>
@@ -11950,7 +12241,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="13"/>
       <c r="B374" s="12" t="s">
         <v>652</v>
@@ -11974,7 +12265,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="13"/>
       <c r="B375" s="11" t="s">
         <v>654</v>
@@ -11998,7 +12289,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="13"/>
       <c r="B376" s="11" t="s">
         <v>656</v>
@@ -12022,7 +12313,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="13"/>
       <c r="B377" s="11" t="s">
         <v>657</v>
@@ -12046,7 +12337,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="13"/>
       <c r="B378" s="12" t="s">
         <v>658</v>
@@ -12070,7 +12361,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>42877</v>
       </c>
@@ -12082,7 +12373,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="13"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="13"/>
       <c r="B380" s="13" t="s">
         <v>546</v>
@@ -12104,7 +12395,7 @@
       </c>
       <c r="H380" s="13"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="13"/>
       <c r="B381" s="13" t="s">
         <v>548</v>
@@ -12126,7 +12417,7 @@
       </c>
       <c r="H381" s="13"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="13"/>
       <c r="B382" s="13" t="s">
         <v>660</v>
@@ -12148,7 +12439,7 @@
       </c>
       <c r="H382" s="13"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="13"/>
       <c r="B383" s="13" t="s">
         <v>661</v>
@@ -12170,7 +12461,7 @@
       </c>
       <c r="H383" s="13"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="13"/>
       <c r="B384" s="13" t="s">
         <v>663</v>
@@ -12192,7 +12483,7 @@
       </c>
       <c r="H384" s="13"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="13"/>
       <c r="B385" s="13" t="s">
         <v>665</v>
@@ -12214,7 +12505,7 @@
       </c>
       <c r="H385" s="13"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="13"/>
       <c r="B386" s="13" t="s">
         <v>667</v>
@@ -12236,7 +12527,7 @@
       </c>
       <c r="H386" s="13"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="13"/>
       <c r="B387" s="11" t="s">
         <v>279</v>
@@ -12260,7 +12551,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="13"/>
       <c r="B388" s="12" t="s">
         <v>670</v>
@@ -12284,7 +12575,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="13"/>
       <c r="B389" s="11" t="s">
         <v>226</v>
@@ -12308,7 +12599,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="13"/>
       <c r="B390" s="12" t="s">
         <v>672</v>
@@ -12332,7 +12623,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="13"/>
       <c r="B391" s="11" t="s">
         <v>674</v>
@@ -12356,7 +12647,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="13"/>
       <c r="B392" s="11" t="s">
         <v>676</v>
@@ -12380,7 +12671,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>677</v>
@@ -12404,7 +12695,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>678</v>
@@ -12428,7 +12719,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>679</v>
@@ -12452,7 +12743,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>681</v>
@@ -12476,7 +12767,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="13"/>
       <c r="B397" s="11" t="s">
         <v>683</v>
@@ -12500,7 +12791,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="13"/>
       <c r="B398" s="11" t="s">
         <v>685</v>
@@ -12524,7 +12815,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="13"/>
       <c r="B399" s="11" t="s">
         <v>686</v>
@@ -12548,7 +12839,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="13"/>
       <c r="B400" s="11" t="s">
         <v>688</v>
@@ -12572,7 +12863,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="13"/>
       <c r="B401" s="11" t="s">
         <v>690</v>
@@ -12596,7 +12887,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="13"/>
       <c r="B402" s="11" t="s">
         <v>692</v>
@@ -12620,7 +12911,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="13"/>
       <c r="B403" s="13" t="s">
         <v>694</v>
@@ -12642,7 +12933,7 @@
       </c>
       <c r="H403" s="13"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="13"/>
       <c r="B404" s="13" t="s">
         <v>697</v>
@@ -12664,7 +12955,7 @@
       </c>
       <c r="H404" s="13"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="13"/>
       <c r="B405" s="13" t="s">
         <v>699</v>
@@ -12686,7 +12977,7 @@
       </c>
       <c r="H405" s="13"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="13"/>
       <c r="B406" s="12" t="s">
         <v>701</v>
@@ -12710,7 +13001,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>702</v>
@@ -12734,7 +13025,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="13"/>
       <c r="B408" s="15" t="s">
         <v>244</v>
@@ -12758,7 +13049,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="13"/>
       <c r="B409" s="11" t="s">
         <v>76</v>
@@ -12782,7 +13073,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="13"/>
       <c r="B410" s="11" t="s">
         <v>704</v>
@@ -12806,7 +13097,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>42878</v>
       </c>
@@ -12818,7 +13109,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="13"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="13"/>
       <c r="B412" s="13" t="s">
         <v>706</v>
@@ -12840,7 +13131,7 @@
       </c>
       <c r="H412" s="13"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="13"/>
       <c r="B413" s="13" t="s">
         <v>708</v>
@@ -12862,7 +13153,7 @@
       </c>
       <c r="H413" s="13"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="13"/>
       <c r="B414" s="13" t="s">
         <v>709</v>
@@ -12884,7 +13175,7 @@
       </c>
       <c r="H414" s="13"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="13"/>
       <c r="B415" s="13" t="s">
         <v>711</v>
@@ -12906,7 +13197,7 @@
       </c>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="13"/>
       <c r="B416" s="13" t="s">
         <v>713</v>
@@ -12928,7 +13219,7 @@
       </c>
       <c r="H416" s="13"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="13"/>
       <c r="B417" s="13" t="s">
         <v>715</v>
@@ -12950,7 +13241,7 @@
       </c>
       <c r="H417" s="13"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="13"/>
       <c r="B418" s="13" t="s">
         <v>717</v>
@@ -12972,7 +13263,7 @@
       </c>
       <c r="H418" s="13"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="13"/>
       <c r="B419" s="13" t="s">
         <v>719</v>
@@ -12994,7 +13285,7 @@
       </c>
       <c r="H419" s="13"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="13"/>
       <c r="B420" s="13" t="s">
         <v>720</v>
@@ -13016,7 +13307,7 @@
       </c>
       <c r="H420" s="13"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="13"/>
       <c r="B421" s="13" t="s">
         <v>722</v>
@@ -13038,7 +13329,7 @@
       </c>
       <c r="H421" s="13"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="13"/>
       <c r="B422" s="13" t="s">
         <v>724</v>
@@ -13060,7 +13351,7 @@
       </c>
       <c r="H422" s="13"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="13"/>
       <c r="B423" s="13" t="s">
         <v>726</v>
@@ -13082,7 +13373,7 @@
       </c>
       <c r="H423" s="13"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="13"/>
       <c r="B424" s="11" t="s">
         <v>728</v>
@@ -13106,7 +13397,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="13"/>
       <c r="B425" s="11" t="s">
         <v>729</v>
@@ -13130,7 +13421,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>42879</v>
       </c>
@@ -13142,7 +13433,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="13"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="13"/>
       <c r="B427" s="13" t="s">
         <v>731</v>
@@ -13164,7 +13455,7 @@
       </c>
       <c r="H427" s="13"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="13"/>
       <c r="B428" s="13" t="s">
         <v>733</v>
@@ -13186,7 +13477,7 @@
       </c>
       <c r="H428" s="13"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="13"/>
       <c r="B429" s="13" t="s">
         <v>735</v>
@@ -13208,7 +13499,7 @@
       </c>
       <c r="H429" s="13"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="13"/>
       <c r="B430" s="12" t="s">
         <v>737</v>
@@ -13232,7 +13523,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>738</v>
@@ -13256,7 +13547,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="13"/>
       <c r="B432" s="11" t="s">
         <v>740</v>
@@ -13280,7 +13571,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="13"/>
       <c r="B433" s="11" t="s">
         <v>742</v>
@@ -13304,7 +13595,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>744</v>
@@ -13328,7 +13619,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="13"/>
       <c r="B435" s="11" t="s">
         <v>240</v>
@@ -13352,7 +13643,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="13"/>
       <c r="B436" s="11" t="s">
         <v>747</v>
@@ -13376,7 +13667,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="13"/>
       <c r="B437" s="11" t="s">
         <v>748</v>
@@ -13400,7 +13691,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>42880</v>
       </c>
@@ -13412,7 +13703,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="13"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="13"/>
       <c r="B439" s="17" t="s">
         <v>760</v>
@@ -13428,7 +13719,7 @@
       </c>
       <c r="H439" s="13"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="13"/>
       <c r="B440" s="17" t="s">
         <v>39</v>
@@ -13444,7 +13735,7 @@
       </c>
       <c r="H440" s="13"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="13"/>
       <c r="B441" s="18" t="s">
         <v>761</v>
@@ -13462,7 +13753,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="13"/>
       <c r="B442" s="11" t="s">
         <v>93</v>
@@ -13480,7 +13771,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="13"/>
       <c r="B443" s="18" t="s">
         <v>762</v>
@@ -13498,7 +13789,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="13"/>
       <c r="B444" s="18" t="s">
         <v>763</v>
@@ -13516,7 +13807,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="13"/>
       <c r="B445" s="18" t="s">
         <v>764</v>
@@ -13534,7 +13825,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>42881</v>
       </c>
@@ -13546,7 +13837,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="13"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="13"/>
       <c r="B447" s="17" t="s">
         <v>766</v>
@@ -13562,7 +13853,7 @@
       </c>
       <c r="H447" s="13"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="13"/>
       <c r="B448" s="17" t="s">
         <v>767</v>
@@ -13578,7 +13869,7 @@
       </c>
       <c r="H448" s="13"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="13"/>
       <c r="B449" s="17" t="s">
         <v>768</v>
@@ -13594,7 +13885,7 @@
       </c>
       <c r="H449" s="13"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="13"/>
       <c r="B450" s="17" t="s">
         <v>258</v>
@@ -13610,7 +13901,7 @@
       </c>
       <c r="H450" s="13"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="13"/>
       <c r="B451" s="18" t="s">
         <v>769</v>
@@ -13628,7 +13919,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="13"/>
       <c r="B452" s="18" t="s">
         <v>770</v>
@@ -13646,7 +13937,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="13"/>
       <c r="B453" s="18" t="s">
         <v>310</v>
@@ -13664,7 +13955,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="13"/>
       <c r="B454" s="18" t="s">
         <v>642</v>
@@ -13682,7 +13973,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="13"/>
       <c r="B455" s="19" t="s">
         <v>771</v>
@@ -13700,7 +13991,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="13"/>
       <c r="B456" s="19" t="s">
         <v>772</v>
@@ -13718,7 +14009,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>42885</v>
       </c>
@@ -13730,7 +14021,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="13"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="13"/>
       <c r="B458" s="17" t="s">
         <v>773</v>
@@ -13746,7 +14037,7 @@
       </c>
       <c r="H458" s="13"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="13"/>
       <c r="B459" s="17" t="s">
         <v>774</v>
@@ -13762,7 +14053,7 @@
       </c>
       <c r="H459" s="13"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="13"/>
       <c r="B460" s="18" t="s">
         <v>728</v>
@@ -13780,7 +14071,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="13"/>
       <c r="B461" s="18" t="s">
         <v>61</v>
@@ -13798,7 +14089,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="13"/>
       <c r="B462" s="18" t="s">
         <v>775</v>
@@ -13816,7 +14107,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="13"/>
       <c r="B463" s="19" t="s">
         <v>485</v>
@@ -13834,7 +14125,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="13"/>
       <c r="B464" s="18" t="s">
         <v>776</v>
@@ -13852,7 +14143,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="13"/>
       <c r="B465" s="18" t="s">
         <v>491</v>
@@ -13870,7 +14161,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="13"/>
       <c r="B466" s="18" t="s">
         <v>777</v>
@@ -13888,7 +14179,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="13"/>
       <c r="B467" s="18" t="s">
         <v>494</v>
@@ -13906,7 +14197,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="13"/>
       <c r="B468" s="19" t="s">
         <v>778</v>
@@ -13924,7 +14215,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="13"/>
       <c r="B469" s="18" t="s">
         <v>779</v>
@@ -13942,7 +14233,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="13"/>
       <c r="B470" s="18" t="s">
         <v>780</v>
@@ -13960,7 +14251,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="13"/>
       <c r="B471" s="18" t="s">
         <v>781</v>
@@ -13978,7 +14269,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="13"/>
       <c r="B472" s="19" t="s">
         <v>782</v>
@@ -13996,7 +14287,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="13"/>
       <c r="B473" s="18" t="s">
         <v>783</v>
@@ -14014,7 +14305,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>42886</v>
       </c>
@@ -14026,7 +14317,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="13"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="13"/>
       <c r="B475" s="17" t="s">
         <v>78</v>
@@ -14042,7 +14333,7 @@
       </c>
       <c r="H475" s="13"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="13"/>
       <c r="B476" s="17" t="s">
         <v>514</v>
@@ -14058,7 +14349,7 @@
       </c>
       <c r="H476" s="13"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="13"/>
       <c r="B477" s="17" t="s">
         <v>177</v>
@@ -14074,7 +14365,7 @@
       </c>
       <c r="H477" s="13"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="13"/>
       <c r="B478" s="17" t="s">
         <v>784</v>
@@ -14090,7 +14381,7 @@
       </c>
       <c r="H478" s="13"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="13"/>
       <c r="B479" s="17" t="s">
         <v>785</v>
@@ -14106,7 +14397,7 @@
       </c>
       <c r="H479" s="13"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="13"/>
       <c r="B480" s="17" t="s">
         <v>786</v>
@@ -14122,7 +14413,7 @@
       </c>
       <c r="H480" s="13"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="13"/>
       <c r="B481" s="17" t="s">
         <v>787</v>
@@ -14138,7 +14429,7 @@
       </c>
       <c r="H481" s="13"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="13"/>
       <c r="B482" s="17" t="s">
         <v>647</v>
@@ -14154,7 +14445,7 @@
       </c>
       <c r="H482" s="13"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="13"/>
       <c r="B483" s="17" t="s">
         <v>244</v>
@@ -14170,7 +14461,7 @@
       </c>
       <c r="H483" s="13"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="13"/>
       <c r="B484" s="19" t="s">
         <v>788</v>
@@ -14188,7 +14479,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="13"/>
       <c r="B485" s="19" t="s">
         <v>789</v>
@@ -14206,7 +14497,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="13"/>
       <c r="B486" s="18" t="s">
         <v>790</v>
@@ -14224,7 +14515,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="13"/>
       <c r="B487" s="18" t="s">
         <v>791</v>
@@ -14242,7 +14533,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="13"/>
       <c r="B488" s="18" t="s">
         <v>792</v>
@@ -14260,7 +14551,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="13"/>
       <c r="B489" s="19" t="s">
         <v>793</v>
@@ -14278,7 +14569,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="13"/>
       <c r="B490" s="18" t="s">
         <v>794</v>
@@ -14296,7 +14587,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="13"/>
       <c r="B491" s="18" t="s">
         <v>71</v>
@@ -14314,7 +14605,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="13"/>
       <c r="B492" s="18" t="s">
         <v>795</v>
@@ -14332,7 +14623,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="13"/>
       <c r="B493" s="19" t="s">
         <v>45</v>
@@ -14350,7 +14641,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>42887</v>
       </c>
@@ -14362,7 +14653,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="13"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="13"/>
       <c r="B495" s="17" t="s">
         <v>796</v>
@@ -14378,7 +14669,7 @@
       </c>
       <c r="H495" s="13"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="13"/>
       <c r="B496" s="17" t="s">
         <v>501</v>
@@ -14394,7 +14685,7 @@
       </c>
       <c r="H496" s="13"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="13"/>
       <c r="B497" s="17" t="s">
         <v>797</v>
@@ -14410,7 +14701,7 @@
       </c>
       <c r="H497" s="13"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="13"/>
       <c r="B498" s="19" t="s">
         <v>798</v>
@@ -14428,7 +14719,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="13"/>
       <c r="B499" s="18" t="s">
         <v>799</v>
@@ -14446,7 +14737,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="13"/>
       <c r="B500" s="18" t="s">
         <v>800</v>
@@ -14464,7 +14755,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="13"/>
       <c r="B501" s="18" t="s">
         <v>744</v>
@@ -14482,7 +14773,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="13"/>
       <c r="B502" s="18" t="s">
         <v>761</v>
@@ -14500,7 +14791,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="13"/>
       <c r="B503" s="18" t="s">
         <v>801</v>
@@ -14518,7 +14809,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="13"/>
       <c r="B504" s="18" t="s">
         <v>802</v>
@@ -14536,7 +14827,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="13"/>
       <c r="B505" s="18" t="s">
         <v>803</v>
@@ -14554,7 +14845,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="13"/>
       <c r="B506" s="18" t="s">
         <v>804</v>
@@ -14572,7 +14863,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="13"/>
       <c r="B507" s="19" t="s">
         <v>805</v>
@@ -14590,7 +14881,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="13"/>
       <c r="B508" s="18" t="s">
         <v>806</v>
@@ -14608,7 +14899,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="13"/>
       <c r="B509" s="18" t="s">
         <v>807</v>
@@ -14626,7 +14917,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="13"/>
       <c r="B510" s="18" t="s">
         <v>808</v>
@@ -14644,7 +14935,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="13"/>
       <c r="B511" s="18" t="s">
         <v>809</v>
@@ -14662,7 +14953,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="13"/>
       <c r="B512" s="18" t="s">
         <v>810</v>
@@ -14680,7 +14971,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="13"/>
       <c r="B513" s="18" t="s">
         <v>541</v>
@@ -14698,7 +14989,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="13"/>
       <c r="B514" s="18" t="s">
         <v>811</v>
@@ -14716,7 +15007,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="13"/>
       <c r="B515" s="18" t="s">
         <v>812</v>
@@ -14734,7 +15025,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="13"/>
       <c r="B516" s="18" t="s">
         <v>39</v>
@@ -14752,7 +15043,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="13"/>
       <c r="B517" s="18" t="s">
         <v>532</v>
@@ -14770,7 +15061,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="13"/>
       <c r="B518" s="18" t="s">
         <v>813</v>
@@ -14788,7 +15079,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="13"/>
       <c r="B519" s="18" t="s">
         <v>814</v>
@@ -14806,7 +15097,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>42890</v>
       </c>
@@ -14818,7 +15109,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="13"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="13"/>
       <c r="B521" s="17" t="s">
         <v>325</v>
@@ -14834,7 +15125,7 @@
       </c>
       <c r="H521" s="13"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="13"/>
       <c r="B522" s="17" t="s">
         <v>815</v>
@@ -14850,7 +15141,7 @@
       </c>
       <c r="H522" s="13"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="13"/>
       <c r="B523" s="18" t="s">
         <v>816</v>
@@ -14868,7 +15159,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="13"/>
       <c r="B524" s="18" t="s">
         <v>89</v>
@@ -14886,7 +15177,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="13"/>
       <c r="B525" s="18" t="s">
         <v>101</v>
@@ -14904,7 +15195,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="13"/>
       <c r="B526" s="18" t="s">
         <v>817</v>
@@ -14922,7 +15213,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="13"/>
       <c r="B527" s="18" t="s">
         <v>818</v>
@@ -14940,7 +15231,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="13"/>
       <c r="B528" s="18" t="s">
         <v>819</v>
@@ -14958,7 +15249,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="13"/>
       <c r="B529" s="19" t="s">
         <v>820</v>
@@ -14976,7 +15267,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="13"/>
       <c r="B530" s="18" t="s">
         <v>821</v>
@@ -14994,7 +15285,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="13"/>
       <c r="B531" s="18" t="s">
         <v>822</v>
@@ -15012,7 +15303,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="13"/>
       <c r="B532" s="18" t="s">
         <v>823</v>
@@ -15030,7 +15321,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>42891</v>
       </c>
@@ -15042,7 +15333,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="13"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="13"/>
       <c r="B534" s="17" t="s">
         <v>824</v>
@@ -15058,7 +15349,7 @@
       </c>
       <c r="H534" s="13"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="13"/>
       <c r="B535" s="17" t="s">
         <v>825</v>
@@ -15074,7 +15365,7 @@
       </c>
       <c r="H535" s="13"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="13"/>
       <c r="B536" s="17" t="s">
         <v>120</v>
@@ -15090,7 +15381,7 @@
       </c>
       <c r="H536" s="13"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="13"/>
       <c r="B537" s="17" t="s">
         <v>826</v>
@@ -15106,7 +15397,7 @@
       </c>
       <c r="H537" s="13"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="13"/>
       <c r="B538" s="17" t="s">
         <v>827</v>
@@ -15122,7 +15413,7 @@
       </c>
       <c r="H538" s="13"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="13"/>
       <c r="B539" s="17" t="s">
         <v>828</v>
@@ -15138,7 +15429,7 @@
       </c>
       <c r="H539" s="13"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="13"/>
       <c r="B540" s="17" t="s">
         <v>829</v>
@@ -15154,7 +15445,7 @@
       </c>
       <c r="H540" s="13"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="13"/>
       <c r="B541" s="18" t="s">
         <v>89</v>
@@ -15172,7 +15463,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="13"/>
       <c r="B542" s="18" t="s">
         <v>830</v>
@@ -15190,7 +15481,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="13"/>
       <c r="B543" s="18" t="s">
         <v>831</v>
@@ -15208,7 +15499,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="13"/>
       <c r="B544" s="18" t="s">
         <v>832</v>
@@ -15226,7 +15517,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="13"/>
       <c r="B545" s="18" t="s">
         <v>833</v>
@@ -15244,7 +15535,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="13"/>
       <c r="B546" s="20" t="s">
         <v>834</v>
@@ -15262,7 +15553,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="13"/>
       <c r="B547" s="19" t="s">
         <v>835</v>
@@ -15280,7 +15571,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="13"/>
       <c r="B548" s="19" t="s">
         <v>836</v>
@@ -15298,7 +15589,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="13"/>
       <c r="B549" s="18" t="s">
         <v>837</v>
@@ -15316,7 +15607,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>42892</v>
       </c>
@@ -15328,7 +15619,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="13"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="13"/>
       <c r="B551" s="17" t="s">
         <v>838</v>
@@ -15344,7 +15635,7 @@
       </c>
       <c r="H551" s="13"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="13"/>
       <c r="B552" s="17" t="s">
         <v>839</v>
@@ -15360,7 +15651,7 @@
       </c>
       <c r="H552" s="13"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="13"/>
       <c r="B553" s="17" t="s">
         <v>840</v>
@@ -15376,7 +15667,7 @@
       </c>
       <c r="H553" s="13"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="13"/>
       <c r="B554" s="17" t="s">
         <v>841</v>
@@ -15392,7 +15683,7 @@
       </c>
       <c r="H554" s="13"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="13"/>
       <c r="B555" s="17" t="s">
         <v>348</v>
@@ -15408,7 +15699,7 @@
       </c>
       <c r="H555" s="13"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="13"/>
       <c r="B556" s="17" t="s">
         <v>842</v>
@@ -15424,7 +15715,7 @@
       </c>
       <c r="H556" s="13"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="13"/>
       <c r="B557" s="18" t="s">
         <v>843</v>
@@ -15442,7 +15733,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="13"/>
       <c r="B558" s="19" t="s">
         <v>844</v>
@@ -15460,7 +15751,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="13"/>
       <c r="B559" s="18" t="s">
         <v>845</v>
@@ -15478,7 +15769,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="13"/>
       <c r="B560" s="18" t="s">
         <v>846</v>
@@ -15496,7 +15787,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>42893</v>
       </c>
@@ -15508,7 +15799,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="13"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="13"/>
       <c r="B562" s="17" t="s">
         <v>847</v>
@@ -15524,7 +15815,7 @@
       </c>
       <c r="H562" s="13"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="13"/>
       <c r="B563" s="17" t="s">
         <v>848</v>
@@ -15540,7 +15831,7 @@
       </c>
       <c r="H563" s="13"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="13"/>
       <c r="B564" s="17" t="s">
         <v>849</v>
@@ -15556,7 +15847,7 @@
       </c>
       <c r="H564" s="13"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="13"/>
       <c r="B565" s="17" t="s">
         <v>850</v>
@@ -15572,7 +15863,7 @@
       </c>
       <c r="H565" s="13"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="13"/>
       <c r="B566" s="17" t="s">
         <v>847</v>
@@ -15588,7 +15879,7 @@
       </c>
       <c r="H566" s="13"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="13"/>
       <c r="B567" s="17" t="s">
         <v>851</v>
@@ -15604,7 +15895,7 @@
       </c>
       <c r="H567" s="13"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="13"/>
       <c r="B568" s="17" t="s">
         <v>852</v>
@@ -15620,7 +15911,7 @@
       </c>
       <c r="H568" s="13"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="13"/>
       <c r="B569" s="17" t="s">
         <v>853</v>
@@ -15636,7 +15927,7 @@
       </c>
       <c r="H569" s="13"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="13"/>
       <c r="B570" s="18" t="s">
         <v>494</v>
@@ -15654,7 +15945,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="13"/>
       <c r="B571" s="19" t="s">
         <v>854</v>
@@ -15672,7 +15963,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="13"/>
       <c r="B572" s="18" t="s">
         <v>536</v>
@@ -15690,7 +15981,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="13"/>
       <c r="B573" s="18" t="s">
         <v>855</v>
@@ -15708,7 +15999,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="13"/>
       <c r="B574" s="19" t="s">
         <v>145</v>
@@ -15726,7 +16017,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="13"/>
       <c r="B575" s="19" t="s">
         <v>856</v>
@@ -15744,7 +16035,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="13"/>
       <c r="B576" s="19" t="s">
         <v>857</v>
@@ -15762,7 +16053,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="13"/>
       <c r="B577" s="19" t="s">
         <v>858</v>
@@ -15780,7 +16071,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="13"/>
       <c r="B578" s="18" t="s">
         <v>859</v>
@@ -15798,7 +16089,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>42894</v>
       </c>
@@ -15810,7 +16101,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="13"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="13"/>
       <c r="B580" s="17" t="s">
         <v>860</v>
@@ -15826,7 +16117,7 @@
       </c>
       <c r="H580" s="13"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="13"/>
       <c r="B581" s="17" t="s">
         <v>861</v>
@@ -15842,7 +16133,7 @@
       </c>
       <c r="H581" s="13"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="13"/>
       <c r="B582" s="17" t="s">
         <v>862</v>
@@ -15858,7 +16149,7 @@
       </c>
       <c r="H582" s="13"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="13"/>
       <c r="B583" s="17" t="s">
         <v>863</v>
@@ -15874,7 +16165,7 @@
       </c>
       <c r="H583" s="13"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="13"/>
       <c r="B584" s="18" t="s">
         <v>827</v>
@@ -15892,7 +16183,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="13"/>
       <c r="B585" s="18" t="s">
         <v>864</v>
@@ -15910,7 +16201,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="13"/>
       <c r="B586" s="19" t="s">
         <v>865</v>
@@ -15928,7 +16219,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="13"/>
       <c r="B587" s="18" t="s">
         <v>866</v>
@@ -15946,7 +16237,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>42895</v>
       </c>
@@ -15958,7 +16249,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="13"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="13"/>
       <c r="B589" s="17" t="s">
         <v>867</v>
@@ -15974,7 +16265,7 @@
       </c>
       <c r="H589" s="13"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="13"/>
       <c r="B590" s="17" t="s">
         <v>868</v>
@@ -15990,7 +16281,7 @@
       </c>
       <c r="H590" s="13"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="13"/>
       <c r="B591" s="17" t="s">
         <v>238</v>
@@ -16006,7 +16297,7 @@
       </c>
       <c r="H591" s="13"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="13"/>
       <c r="B592" s="17" t="s">
         <v>802</v>
@@ -16022,7 +16313,7 @@
       </c>
       <c r="H592" s="13"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="13"/>
       <c r="B593" s="17" t="s">
         <v>869</v>
@@ -16038,7 +16329,7 @@
       </c>
       <c r="H593" s="13"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="13"/>
       <c r="B594" s="18" t="s">
         <v>113</v>
@@ -16056,7 +16347,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="13"/>
       <c r="B595" s="19" t="s">
         <v>870</v>
@@ -16074,7 +16365,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="13"/>
       <c r="B596" s="18" t="s">
         <v>871</v>
@@ -16092,7 +16383,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>42898</v>
       </c>
@@ -16104,7 +16395,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="13"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="13"/>
       <c r="B598" s="17" t="s">
         <v>872</v>
@@ -16120,7 +16411,7 @@
       </c>
       <c r="H598" s="13"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="13"/>
       <c r="B599" s="17" t="s">
         <v>694</v>
@@ -16136,7 +16427,7 @@
       </c>
       <c r="H599" s="13"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="13"/>
       <c r="B600" s="17" t="s">
         <v>250</v>
@@ -16152,7 +16443,7 @@
       </c>
       <c r="H600" s="13"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="13"/>
       <c r="B601" s="17" t="s">
         <v>873</v>
@@ -16168,7 +16459,7 @@
       </c>
       <c r="H601" s="13"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="13"/>
       <c r="B602" s="17" t="s">
         <v>32</v>
@@ -16184,7 +16475,7 @@
       </c>
       <c r="H602" s="13"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="13"/>
       <c r="B603" s="17" t="s">
         <v>874</v>
@@ -16200,7 +16491,7 @@
       </c>
       <c r="H603" s="13"/>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="13"/>
       <c r="B604" s="17" t="s">
         <v>340</v>
@@ -16216,7 +16507,7 @@
       </c>
       <c r="H604" s="13"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="13"/>
       <c r="B605" s="17" t="s">
         <v>875</v>
@@ -16232,7 +16523,7 @@
       </c>
       <c r="H605" s="13"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="13"/>
       <c r="B606" s="17" t="s">
         <v>876</v>
@@ -16248,7 +16539,7 @@
       </c>
       <c r="H606" s="13"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="13"/>
       <c r="B607" s="17" t="s">
         <v>877</v>
@@ -16264,7 +16555,7 @@
       </c>
       <c r="H607" s="13"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="13"/>
       <c r="B608" s="17" t="s">
         <v>878</v>
@@ -16280,7 +16571,7 @@
       </c>
       <c r="H608" s="13"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="13"/>
       <c r="B609" s="19" t="s">
         <v>654</v>
@@ -16298,7 +16589,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="13"/>
       <c r="B610" s="19" t="s">
         <v>879</v>
@@ -16316,7 +16607,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="13"/>
       <c r="B611" s="18" t="s">
         <v>880</v>
@@ -16334,7 +16625,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="13"/>
       <c r="B612" s="18" t="s">
         <v>881</v>
@@ -16352,7 +16643,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="13"/>
       <c r="B613" s="18" t="s">
         <v>882</v>
@@ -16370,7 +16661,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="13"/>
       <c r="B614" s="18" t="s">
         <v>883</v>
@@ -16388,7 +16679,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="13"/>
       <c r="B615" s="18" t="s">
         <v>884</v>
@@ -16406,7 +16697,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="13"/>
       <c r="B616" s="18" t="s">
         <v>885</v>
@@ -16424,7 +16715,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="13"/>
       <c r="B617" s="18" t="s">
         <v>886</v>
@@ -16442,7 +16733,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="13"/>
       <c r="B618" s="18" t="s">
         <v>887</v>
@@ -16460,7 +16751,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="13"/>
       <c r="B619" s="18" t="s">
         <v>888</v>
@@ -16478,7 +16769,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="13"/>
       <c r="B620" s="18" t="s">
         <v>889</v>
@@ -16496,7 +16787,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="13"/>
       <c r="B621" s="18" t="s">
         <v>890</v>
@@ -16514,7 +16805,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="13"/>
       <c r="B622" s="18" t="s">
         <v>891</v>
@@ -16532,7 +16823,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="13"/>
       <c r="B623" s="18" t="s">
         <v>892</v>
@@ -16550,7 +16841,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="13"/>
       <c r="B624" s="18" t="s">
         <v>893</v>
@@ -16568,7 +16859,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="13"/>
       <c r="B625" s="18" t="s">
         <v>894</v>
@@ -16586,7 +16877,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="13"/>
       <c r="B626" s="18" t="s">
         <v>895</v>
@@ -16604,7 +16895,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="13"/>
       <c r="B627" s="18" t="s">
         <v>896</v>
@@ -16622,7 +16913,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="13"/>
       <c r="B628" s="18" t="s">
         <v>7</v>
@@ -16640,7 +16931,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="13"/>
       <c r="B629" s="18" t="s">
         <v>854</v>
@@ -16658,7 +16949,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="13"/>
       <c r="B630" s="18" t="s">
         <v>897</v>
@@ -16676,7 +16967,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="13"/>
       <c r="B631" s="18" t="s">
         <v>606</v>
@@ -16694,7 +16985,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="13"/>
       <c r="B632" s="18" t="s">
         <v>898</v>
@@ -16712,7 +17003,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="13"/>
       <c r="B633" s="18" t="s">
         <v>899</v>
@@ -16730,7 +17021,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="13"/>
       <c r="B634" s="18" t="s">
         <v>900</v>
@@ -16748,7 +17039,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="13"/>
       <c r="B635" s="18" t="s">
         <v>901</v>
@@ -16766,7 +17057,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="13"/>
       <c r="B636" s="18" t="s">
         <v>731</v>
@@ -16784,7 +17075,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="13"/>
       <c r="B637" s="18" t="s">
         <v>902</v>
@@ -16802,7 +17093,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="13"/>
       <c r="B638" s="18" t="s">
         <v>903</v>
@@ -16820,7 +17111,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="13"/>
       <c r="B639" s="18" t="s">
         <v>904</v>
@@ -16838,7 +17129,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="13"/>
       <c r="B640" s="18" t="s">
         <v>905</v>
@@ -16856,7 +17147,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="13"/>
       <c r="B641" s="18" t="s">
         <v>906</v>
@@ -16874,7 +17165,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="13"/>
       <c r="B642" s="18" t="s">
         <v>907</v>
@@ -16892,7 +17183,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="13"/>
       <c r="B643" s="18" t="s">
         <v>908</v>
@@ -16910,7 +17201,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="13"/>
       <c r="B644" s="18" t="s">
         <v>909</v>
@@ -16928,7 +17219,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="13"/>
       <c r="B645" s="18" t="s">
         <v>910</v>
@@ -16946,7 +17237,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="13"/>
       <c r="B646" s="19" t="s">
         <v>911</v>
@@ -16964,7 +17255,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="13"/>
       <c r="B647" s="18" t="s">
         <v>842</v>
@@ -16982,7 +17273,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="13"/>
       <c r="B648" s="18" t="s">
         <v>912</v>
@@ -17000,7 +17291,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="13"/>
       <c r="B649" s="19" t="s">
         <v>913</v>
@@ -17018,7 +17309,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="13"/>
       <c r="B650" s="19" t="s">
         <v>914</v>
@@ -17036,7 +17327,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="13"/>
       <c r="B651" s="18" t="s">
         <v>915</v>
@@ -17054,7 +17345,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="13"/>
       <c r="B652" s="18" t="s">
         <v>916</v>
@@ -17072,7 +17363,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="13"/>
       <c r="B653" s="19" t="s">
         <v>917</v>
@@ -17090,7 +17381,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>42899</v>
       </c>
@@ -17101,6 +17392,1410 @@
       <c r="F654" s="13"/>
       <c r="G654" s="13"/>
       <c r="H654" s="13"/>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B655" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E655" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G655" s="2">
+        <v>4112017</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B656" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="E656" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G656" s="2">
+        <v>4182017</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B657" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="E657" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G657" s="2">
+        <v>5042017</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B658" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="E658" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G658" s="2">
+        <v>5302017</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B659" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="E659" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G659" s="2">
+        <v>6062017</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B660" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="E660" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G660" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B661" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="E661" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G661" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B662" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="E662" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G662" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A663" s="1">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B664" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E664" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G664" s="2">
+        <v>4212017</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B665" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E665" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G665" s="2">
+        <v>5172017</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B666" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="E666" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G666" s="2">
+        <v>5252017</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B667" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="E667" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G667" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B668" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="E668" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G668" s="2">
+        <v>6072017</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B669" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="E669" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G669" s="2">
+        <v>6092017</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B670" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="E670" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G670" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A671" s="1">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B672" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E672" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G672" s="2">
+        <v>4132017</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B673" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="E673" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G673" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A674" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B675" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E675" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G675" s="2">
+        <v>2092017</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B676" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E676" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G676" s="2">
+        <v>4072017</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B677" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="E677" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G677" s="2">
+        <v>6072017</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B678" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="E678" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G678" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A679" s="1">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B680" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E680" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G680" s="2">
+        <v>5302017</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B681" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="E681" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G681" s="2">
+        <v>6132017</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B682" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="E682" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G682" s="2">
+        <v>6132017</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B683" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="E683" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G683" s="2">
+        <v>6142017</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B684" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="E684" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G684" s="2">
+        <v>6162017</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B685" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="E685" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G685" s="2">
+        <v>6162017</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B686" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="E686" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G686" s="2">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B687" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="E687" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G687" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A688" s="1">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B689" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E689" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G689" s="2">
+        <v>5302017</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B690" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="E690" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G690" s="2">
+        <v>6132017</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B691" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E691" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G691" s="2">
+        <v>6162017</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B692" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="E692" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G692" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A693" s="1">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B694" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="E694" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G694" s="2">
+        <v>5042017</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B695" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="E695" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G695" s="2">
+        <v>6162017</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B696" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="E696" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G696" s="2">
+        <v>5222017</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B697" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="E697" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G697" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B698" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="E698" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G698" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B699" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="E699" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G699" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B700" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="E700" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G700" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B701" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="E701" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G701" s="2">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A702" s="1">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B703" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="E703" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G703" s="2">
+        <v>6162017</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B704" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="E704" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G704" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B705" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="E705" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G705" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B706" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="E706" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G706" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B707" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="E707" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G707" s="2">
+        <v>6212017</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A708" s="1">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B709" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E709" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G709" s="2">
+        <v>5012017</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B710" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="E710" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G710" s="2">
+        <v>5082017</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B711" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="E711" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G711" s="2">
+        <v>5152017</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B712" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="E712" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G712" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B713" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="E713" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G713" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B714" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="E714" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G714" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B715" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="E715" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G715" s="2">
+        <v>6212017</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B716" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="E716" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G716" s="2">
+        <v>2072017</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B717" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="E717" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G717" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B718" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="E718" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G718" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B719" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="E719" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G719" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B720" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E720" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G720" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B721" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="E721" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G721" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A722" s="1">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B723" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E723" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G723" s="2">
+        <v>2162017</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B724" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="E724" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G724" s="2">
+        <v>3032017</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B725" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="E725" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G725" s="2">
+        <v>5012017</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B726" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E726" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G726" s="2">
+        <v>5052017</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B727" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E727" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G727" s="2">
+        <v>5052017</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B728" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="E728" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G728" s="2">
+        <v>5112017</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B729" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E729" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G729" s="2">
+        <v>5152017</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B730" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="E730" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G730" s="2">
+        <v>5302017</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B731" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="E731" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G731" s="2">
+        <v>5182017</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B732" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="E732" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G732" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B733" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="E733" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G733" s="2">
+        <v>6192017</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B734" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="E734" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G734" s="2">
+        <v>6202017</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B735" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="E735" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G735" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B736" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="E736" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G736" s="2">
+        <v>6262017</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B737" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="E737" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G737" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A738" s="1">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B739" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="E739" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G739" s="2">
+        <v>4262017</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B740" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="E740" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G740" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B741" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="E741" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G741" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B742" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E742" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G742" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B743" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="E743" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G743" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B744" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E744" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G744" s="2">
+        <v>6132017</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B745" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="E745" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G745" s="2">
+        <v>4142017</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B746" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="E746" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G746" s="2">
+        <v>6012017</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B747" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="E747" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G747" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B748" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="E748" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G748" s="2">
+        <v>6212017</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B749" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="E749" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G749" s="2">
+        <v>6212017</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B750" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="E750" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G750" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B751" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="E751" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G751" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A752" s="1">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B753" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="E753" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G753" s="2">
+        <v>4262017</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B754" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="E754" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G754" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B755" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="E755" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G755" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B756" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E756" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G756" s="2">
+        <v>6082017</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B757" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="E757" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G757" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B758" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E758" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G758" s="2">
+        <v>6132017</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B759" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="E759" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G759" s="2">
+        <v>4142017</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B760" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="E760" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G760" s="2">
+        <v>6012017</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B761" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="E761" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G761" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B762" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="E762" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G762" s="2">
+        <v>6212017</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B763" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="E763" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G763" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B764" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="E764" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G764" s="2">
+        <v>6232017</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B765" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="E765" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A766" s="1">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B767" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="E767" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G767" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B768" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="E768" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G768" s="2">
+        <v>6022017</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B769" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="E769" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G769" s="2">
+        <v>6142017</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B770" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="E770" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G770" s="2">
+        <v>4132017</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B771" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="E771" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G771" s="2">
+        <v>6272017</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A772" s="1">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B773" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="E773" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G773" s="2">
+        <v>3022017</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B774" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="E774" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G774" s="2">
+        <v>3142017</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B775" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="E775" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G775" s="2">
+        <v>5122017</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B776" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="E776" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G776" s="2">
+        <v>5182017</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B777" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E777" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G777" s="2">
+        <v>5302017</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B778" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="E778" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G778" s="2">
+        <v>5312017</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B779" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="E779" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G779" s="2">
+        <v>6022017</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B780" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="E780" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G780" s="2">
+        <v>6052017</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B781" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E781" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G781" s="2">
+        <v>6052017</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B782" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E782" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G782" s="2">
+        <v>6062017</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B783" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E783" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G783" s="2">
+        <v>6072017</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B784" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E784" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G784" s="2">
+        <v>6092017</v>
+      </c>
+    </row>
+    <row r="785" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B785" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E785" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G785" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="786" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B786" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E786" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G786" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="787" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B787" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E787" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G787" s="2">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="788" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B788" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E788" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G788" s="2">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="789" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B789" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E789" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G789" s="2">
+        <v>6192017</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17114,7 +18809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17126,7 +18821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errors/Error Report Inpatient.xlsx
+++ b/errors/Error Report Inpatient.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1011">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -3045,6 +3045,15 @@
   </si>
   <si>
     <t>000051871-01</t>
+  </si>
+  <si>
+    <t>Rerun</t>
+  </si>
+  <si>
+    <t>Rerun &amp; Fix Dates</t>
+  </si>
+  <si>
+    <t>Deny Skilled Pay Unskilled</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3116,6 +3125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3129,7 +3144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3193,6 +3208,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3534,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
-      <selection activeCell="E790" sqref="E790"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="E633" sqref="E633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12913,69 +12937,75 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="13"/>
-      <c r="B403" s="13" t="s">
+      <c r="B403" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="C403" s="13">
+      <c r="C403" s="22">
         <v>906519</v>
       </c>
-      <c r="D403" s="13">
+      <c r="D403" s="22">
         <v>905915</v>
       </c>
-      <c r="E403" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F403" s="13" t="s">
+      <c r="E403" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F403" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="G403" s="13" t="s">
+      <c r="G403" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="H403" s="13"/>
+      <c r="H403" s="22" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="13"/>
-      <c r="B404" s="13" t="s">
+      <c r="B404" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C404" s="13">
+      <c r="C404" s="11">
         <v>921419</v>
       </c>
-      <c r="D404" s="13">
+      <c r="D404" s="11">
         <v>920758</v>
       </c>
-      <c r="E404" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F404" s="13" t="s">
+      <c r="E404" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F404" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G404" s="13">
+      <c r="G404" s="11">
         <v>5122017</v>
       </c>
-      <c r="H404" s="13"/>
+      <c r="H404" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="13"/>
-      <c r="B405" s="13" t="s">
+      <c r="B405" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C405" s="13">
+      <c r="C405" s="11">
         <v>916638</v>
       </c>
-      <c r="D405" s="13">
+      <c r="D405" s="11">
         <v>905915</v>
       </c>
-      <c r="E405" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F405" s="13" t="s">
+      <c r="E405" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F405" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="G405" s="13">
+      <c r="G405" s="11">
         <v>4272017</v>
       </c>
-      <c r="H405" s="13"/>
+      <c r="H405" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="13"/>
@@ -13199,179 +13229,195 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="13"/>
-      <c r="B416" s="13" t="s">
+      <c r="B416" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="C416" s="13">
+      <c r="C416" s="12">
         <v>937361</v>
       </c>
-      <c r="D416" s="13">
+      <c r="D416" s="12">
         <v>936526</v>
       </c>
-      <c r="E416" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F416" s="13" t="s">
+      <c r="E416" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F416" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="G416" s="13">
+      <c r="G416" s="12">
         <v>3052017</v>
       </c>
-      <c r="H416" s="13"/>
+      <c r="H416" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="13"/>
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="C417" s="13">
+      <c r="C417" s="11">
         <v>937376</v>
       </c>
-      <c r="D417" s="13">
+      <c r="D417" s="11">
         <v>922959</v>
       </c>
-      <c r="E417" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F417" s="13" t="s">
+      <c r="E417" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F417" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="G417" s="13">
+      <c r="G417" s="11">
         <v>3022017</v>
       </c>
-      <c r="H417" s="13"/>
+      <c r="H417" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="13"/>
-      <c r="B418" s="13" t="s">
+      <c r="B418" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="C418" s="13">
+      <c r="C418" s="22">
         <v>937109</v>
       </c>
-      <c r="D418" s="13">
+      <c r="D418" s="22">
         <v>943297</v>
       </c>
-      <c r="E418" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F418" s="13" t="s">
+      <c r="E418" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F418" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="G418" s="13">
+      <c r="G418" s="22">
         <v>3092017</v>
       </c>
-      <c r="H418" s="13"/>
+      <c r="H418" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="13"/>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C419" s="13">
+      <c r="C419" s="11">
         <v>903552</v>
       </c>
-      <c r="D419" s="13">
+      <c r="D419" s="11">
         <v>939320</v>
       </c>
-      <c r="E419" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F419" s="13" t="s">
+      <c r="E419" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F419" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G419" s="13">
+      <c r="G419" s="11">
         <v>4032017</v>
       </c>
-      <c r="H419" s="13"/>
+      <c r="H419" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="13"/>
-      <c r="B420" s="13" t="s">
+      <c r="B420" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="C420" s="13">
+      <c r="C420" s="11">
         <v>927490</v>
       </c>
-      <c r="D420" s="13">
+      <c r="D420" s="11">
         <v>936519</v>
       </c>
-      <c r="E420" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F420" s="13" t="s">
+      <c r="E420" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F420" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="G420" s="13">
+      <c r="G420" s="11">
         <v>4102017</v>
       </c>
-      <c r="H420" s="13"/>
+      <c r="H420" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="13"/>
-      <c r="B421" s="13" t="s">
+      <c r="B421" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C421" s="13">
+      <c r="C421" s="11">
         <v>936386</v>
       </c>
-      <c r="D421" s="13">
+      <c r="D421" s="11">
         <v>918938</v>
       </c>
-      <c r="E421" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F421" s="13" t="s">
+      <c r="E421" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F421" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="G421" s="13">
+      <c r="G421" s="11">
         <v>4192017</v>
       </c>
-      <c r="H421" s="13"/>
+      <c r="H421" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="13"/>
-      <c r="B422" s="13" t="s">
+      <c r="B422" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C422" s="13">
+      <c r="C422" s="11">
         <v>935040</v>
       </c>
-      <c r="D422" s="13">
+      <c r="D422" s="11">
         <v>930695</v>
       </c>
-      <c r="E422" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F422" s="13" t="s">
+      <c r="E422" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F422" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="G422" s="13">
+      <c r="G422" s="11">
         <v>4302017</v>
       </c>
-      <c r="H422" s="13"/>
+      <c r="H422" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="13"/>
-      <c r="B423" s="13" t="s">
+      <c r="B423" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="C423" s="13">
+      <c r="C423" s="11">
         <v>935040</v>
       </c>
-      <c r="D423" s="13">
+      <c r="D423" s="11">
         <v>930697</v>
       </c>
-      <c r="E423" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F423" s="13" t="s">
+      <c r="E423" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F423" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="G423" s="13">
+      <c r="G423" s="11">
         <v>5082017</v>
       </c>
-      <c r="H423" s="13"/>
+      <c r="H423" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="13"/>
@@ -13479,25 +13525,27 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="13"/>
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="C429" s="13">
+      <c r="C429" s="11">
         <v>922021</v>
       </c>
-      <c r="D429" s="13">
+      <c r="D429" s="11">
         <v>930994</v>
       </c>
-      <c r="E429" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F429" s="13" t="s">
+      <c r="E429" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F429" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="G429" s="13">
+      <c r="G429" s="11">
         <v>4092017</v>
       </c>
-      <c r="H429" s="13"/>
+      <c r="H429" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="13"/>
@@ -13705,35 +13753,39 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="13"/>
-      <c r="B439" s="17" t="s">
+      <c r="B439" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="C439" s="13"/>
-      <c r="D439" s="13"/>
-      <c r="E439" s="13" t="s">
+      <c r="C439" s="11"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F439" s="13"/>
-      <c r="G439" s="17">
+      <c r="F439" s="11"/>
+      <c r="G439" s="18">
         <v>3142017</v>
       </c>
-      <c r="H439" s="13"/>
+      <c r="H439" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="13"/>
-      <c r="B440" s="17" t="s">
+      <c r="B440" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13" t="s">
+      <c r="C440" s="11"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F440" s="13"/>
-      <c r="G440" s="17">
+      <c r="F440" s="11"/>
+      <c r="G440" s="18">
         <v>4182017</v>
       </c>
-      <c r="H440" s="13"/>
+      <c r="H440" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="13"/>
@@ -13827,7 +13879,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
-        <v>42881</v>
+        <v>42884</v>
       </c>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -13839,67 +13891,75 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="13"/>
-      <c r="B447" s="17" t="s">
+      <c r="B447" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="C447" s="13"/>
-      <c r="D447" s="13"/>
-      <c r="E447" s="13" t="s">
+      <c r="C447" s="11"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F447" s="13"/>
-      <c r="G447" s="17">
+      <c r="F447" s="11"/>
+      <c r="G447" s="18">
         <v>3222017</v>
       </c>
-      <c r="H447" s="13"/>
+      <c r="H447" s="11" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="13"/>
-      <c r="B448" s="17" t="s">
+      <c r="B448" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C448" s="13"/>
-      <c r="D448" s="13"/>
-      <c r="E448" s="13" t="s">
+      <c r="C448" s="11"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F448" s="13"/>
-      <c r="G448" s="17">
+      <c r="F448" s="11"/>
+      <c r="G448" s="18">
         <v>4202017</v>
       </c>
-      <c r="H448" s="13"/>
+      <c r="H448" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="13"/>
-      <c r="B449" s="17" t="s">
+      <c r="B449" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="C449" s="13"/>
-      <c r="D449" s="13"/>
-      <c r="E449" s="13" t="s">
+      <c r="C449" s="11"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F449" s="13"/>
-      <c r="G449" s="13">
+      <c r="F449" s="11"/>
+      <c r="G449" s="11">
         <v>4262017</v>
       </c>
-      <c r="H449" s="13"/>
+      <c r="H449" s="11" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="13"/>
-      <c r="B450" s="17" t="s">
+      <c r="B450" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13" t="s">
+      <c r="C450" s="22"/>
+      <c r="D450" s="22"/>
+      <c r="E450" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F450" s="13"/>
-      <c r="G450" s="17">
+      <c r="F450" s="22"/>
+      <c r="G450" s="23">
         <v>5122017</v>
       </c>
-      <c r="H450" s="13"/>
+      <c r="H450" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="13"/>
@@ -14023,35 +14083,39 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="13"/>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="C458" s="13"/>
-      <c r="D458" s="13"/>
-      <c r="E458" s="13" t="s">
+      <c r="C458" s="11"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F458" s="13"/>
-      <c r="G458" s="17">
+      <c r="F458" s="11"/>
+      <c r="G458" s="18">
         <v>2152017</v>
       </c>
-      <c r="H458" s="13"/>
+      <c r="H458" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="13"/>
-      <c r="B459" s="17" t="s">
+      <c r="B459" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="C459" s="13"/>
-      <c r="D459" s="13"/>
-      <c r="E459" s="13" t="s">
+      <c r="C459" s="11"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F459" s="13"/>
-      <c r="G459" s="17">
+      <c r="F459" s="11"/>
+      <c r="G459" s="18">
         <v>3292017</v>
       </c>
-      <c r="H459" s="13"/>
+      <c r="H459" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="13"/>
@@ -14319,147 +14383,165 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="13"/>
-      <c r="B475" s="17" t="s">
+      <c r="B475" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C475" s="13"/>
-      <c r="D475" s="13"/>
-      <c r="E475" s="13" t="s">
+      <c r="C475" s="11"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F475" s="13"/>
-      <c r="G475" s="17">
+      <c r="F475" s="11"/>
+      <c r="G475" s="18">
         <v>4242017</v>
       </c>
-      <c r="H475" s="13"/>
+      <c r="H475" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="13"/>
-      <c r="B476" s="17" t="s">
+      <c r="B476" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="C476" s="13"/>
-      <c r="D476" s="13"/>
-      <c r="E476" s="13" t="s">
+      <c r="C476" s="22"/>
+      <c r="D476" s="22"/>
+      <c r="E476" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F476" s="13"/>
-      <c r="G476" s="17">
+      <c r="F476" s="22"/>
+      <c r="G476" s="23">
         <v>4142017</v>
       </c>
-      <c r="H476" s="13"/>
+      <c r="H476" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="13"/>
-      <c r="B477" s="17" t="s">
+      <c r="B477" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C477" s="13"/>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13" t="s">
+      <c r="C477" s="11"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F477" s="13"/>
-      <c r="G477" s="17">
+      <c r="F477" s="11"/>
+      <c r="G477" s="18">
         <v>3202017</v>
       </c>
-      <c r="H477" s="13"/>
+      <c r="H477" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="13"/>
-      <c r="B478" s="17" t="s">
+      <c r="B478" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="C478" s="13"/>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13" t="s">
+      <c r="C478" s="12"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F478" s="13"/>
-      <c r="G478" s="17">
+      <c r="F478" s="12"/>
+      <c r="G478" s="19">
         <v>3162017</v>
       </c>
-      <c r="H478" s="13"/>
+      <c r="H478" s="12" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="13"/>
-      <c r="B479" s="17" t="s">
+      <c r="B479" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="C479" s="13"/>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13" t="s">
+      <c r="C479" s="11"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F479" s="13"/>
-      <c r="G479" s="17">
+      <c r="F479" s="11"/>
+      <c r="G479" s="18">
         <v>4102017</v>
       </c>
-      <c r="H479" s="13"/>
+      <c r="H479" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="13"/>
-      <c r="B480" s="17" t="s">
+      <c r="B480" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C480" s="13"/>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13" t="s">
+      <c r="C480" s="11"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F480" s="13"/>
-      <c r="G480" s="17">
+      <c r="F480" s="11"/>
+      <c r="G480" s="18">
         <v>4172017</v>
       </c>
-      <c r="H480" s="13"/>
+      <c r="H480" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="13"/>
-      <c r="B481" s="17" t="s">
+      <c r="B481" s="24" t="s">
         <v>787</v>
       </c>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13" t="s">
+      <c r="C481" s="22"/>
+      <c r="D481" s="22"/>
+      <c r="E481" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F481" s="13"/>
-      <c r="G481" s="17">
+      <c r="F481" s="22"/>
+      <c r="G481" s="24">
         <v>5032017</v>
       </c>
-      <c r="H481" s="13"/>
+      <c r="H481" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="13"/>
-      <c r="B482" s="17" t="s">
+      <c r="B482" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="C482" s="13"/>
-      <c r="D482" s="13"/>
-      <c r="E482" s="13" t="s">
+      <c r="C482" s="22"/>
+      <c r="D482" s="22"/>
+      <c r="E482" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F482" s="13"/>
-      <c r="G482" s="17">
+      <c r="F482" s="22"/>
+      <c r="G482" s="23">
         <v>5112017</v>
       </c>
-      <c r="H482" s="13"/>
+      <c r="H482" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="13"/>
-      <c r="B483" s="17" t="s">
+      <c r="B483" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C483" s="13"/>
-      <c r="D483" s="13"/>
-      <c r="E483" s="13" t="s">
+      <c r="C483" s="12"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F483" s="13"/>
-      <c r="G483" s="17">
+      <c r="F483" s="12"/>
+      <c r="G483" s="19">
         <v>5192017</v>
       </c>
-      <c r="H483" s="13"/>
+      <c r="H483" s="12" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="13"/>
@@ -16251,83 +16333,93 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="13"/>
-      <c r="B589" s="17" t="s">
+      <c r="B589" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="C589" s="13"/>
-      <c r="D589" s="13"/>
-      <c r="E589" s="13" t="s">
+      <c r="C589" s="12"/>
+      <c r="D589" s="12"/>
+      <c r="E589" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F589" s="13"/>
-      <c r="G589" s="17">
+      <c r="F589" s="12"/>
+      <c r="G589" s="19">
         <v>2242017</v>
       </c>
-      <c r="H589" s="13"/>
+      <c r="H589" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="13"/>
-      <c r="B590" s="17" t="s">
+      <c r="B590" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="C590" s="13"/>
-      <c r="D590" s="13"/>
-      <c r="E590" s="13" t="s">
+      <c r="C590" s="12"/>
+      <c r="D590" s="12"/>
+      <c r="E590" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F590" s="13"/>
-      <c r="G590" s="17">
+      <c r="F590" s="12"/>
+      <c r="G590" s="19">
         <v>4062017</v>
       </c>
-      <c r="H590" s="13"/>
+      <c r="H590" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="13"/>
-      <c r="B591" s="17" t="s">
+      <c r="B591" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C591" s="13"/>
-      <c r="D591" s="13"/>
-      <c r="E591" s="13" t="s">
+      <c r="C591" s="11"/>
+      <c r="D591" s="11"/>
+      <c r="E591" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F591" s="13"/>
-      <c r="G591" s="17">
+      <c r="F591" s="11"/>
+      <c r="G591" s="18">
         <v>4102017</v>
       </c>
-      <c r="H591" s="13"/>
+      <c r="H591" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="13"/>
-      <c r="B592" s="17" t="s">
+      <c r="B592" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="C592" s="13"/>
-      <c r="D592" s="13"/>
-      <c r="E592" s="13" t="s">
+      <c r="C592" s="11"/>
+      <c r="D592" s="11"/>
+      <c r="E592" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F592" s="13"/>
-      <c r="G592" s="17">
+      <c r="F592" s="11"/>
+      <c r="G592" s="18">
         <v>4122017</v>
       </c>
-      <c r="H592" s="13"/>
+      <c r="H592" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="13"/>
-      <c r="B593" s="17" t="s">
+      <c r="B593" s="23" t="s">
         <v>869</v>
       </c>
-      <c r="C593" s="13"/>
-      <c r="D593" s="13"/>
-      <c r="E593" s="13" t="s">
+      <c r="C593" s="22"/>
+      <c r="D593" s="22"/>
+      <c r="E593" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F593" s="13"/>
-      <c r="G593" s="17">
+      <c r="F593" s="22"/>
+      <c r="G593" s="23">
         <v>5152017</v>
       </c>
-      <c r="H593" s="13"/>
+      <c r="H593" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="13"/>

--- a/errors/Error Report Inpatient.xlsx
+++ b/errors/Error Report Inpatient.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\medibot-amisys\errors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlusenhop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1012">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -3054,6 +3054,9 @@
   </si>
   <si>
     <t>Deny Skilled Pay Unskilled</t>
+  </si>
+  <si>
+    <t>No Assessment Amount</t>
   </si>
 </sst>
 </file>
@@ -3144,7 +3147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3217,6 +3220,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3556,10 +3574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H789"/>
+  <dimension ref="A1:H775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="E633" sqref="E633"/>
+    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
+      <selection activeCell="B764" sqref="B764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16489,179 +16507,201 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="13"/>
-      <c r="B598" s="17" t="s">
+      <c r="B598" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="C598" s="13"/>
-      <c r="D598" s="13"/>
-      <c r="E598" s="13" t="s">
+      <c r="C598" s="12"/>
+      <c r="D598" s="12"/>
+      <c r="E598" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F598" s="13"/>
-      <c r="G598" s="17">
+      <c r="F598" s="12"/>
+      <c r="G598" s="19">
         <v>4122017</v>
       </c>
-      <c r="H598" s="13"/>
+      <c r="H598" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="13"/>
-      <c r="B599" s="17" t="s">
+      <c r="B599" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C599" s="13"/>
-      <c r="D599" s="13"/>
-      <c r="E599" s="13" t="s">
+      <c r="C599" s="22"/>
+      <c r="D599" s="22"/>
+      <c r="E599" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F599" s="13"/>
-      <c r="G599" s="17">
+      <c r="F599" s="22"/>
+      <c r="G599" s="23">
         <v>5122017</v>
       </c>
-      <c r="H599" s="13"/>
+      <c r="H599" s="22" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="13"/>
-      <c r="B600" s="17" t="s">
+      <c r="B600" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C600" s="13"/>
-      <c r="D600" s="13"/>
-      <c r="E600" s="13" t="s">
+      <c r="C600" s="12"/>
+      <c r="D600" s="12"/>
+      <c r="E600" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F600" s="13"/>
-      <c r="G600" s="17">
+      <c r="F600" s="12"/>
+      <c r="G600" s="19">
         <v>5172017</v>
       </c>
-      <c r="H600" s="13"/>
+      <c r="H600" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="13"/>
-      <c r="B601" s="17" t="s">
+      <c r="B601" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="C601" s="13"/>
-      <c r="D601" s="13"/>
-      <c r="E601" s="13" t="s">
+      <c r="C601" s="12"/>
+      <c r="D601" s="12"/>
+      <c r="E601" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F601" s="13"/>
-      <c r="G601" s="17">
+      <c r="F601" s="12"/>
+      <c r="G601" s="19">
         <v>5242017</v>
       </c>
-      <c r="H601" s="13"/>
+      <c r="H601" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="13"/>
-      <c r="B602" s="17" t="s">
+      <c r="B602" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C602" s="13"/>
-      <c r="D602" s="13"/>
-      <c r="E602" s="13" t="s">
+      <c r="C602" s="12"/>
+      <c r="D602" s="12"/>
+      <c r="E602" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F602" s="13"/>
-      <c r="G602" s="17">
+      <c r="F602" s="12"/>
+      <c r="G602" s="19">
         <v>5312017</v>
       </c>
-      <c r="H602" s="13"/>
+      <c r="H602" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="13"/>
-      <c r="B603" s="17" t="s">
+      <c r="B603" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="C603" s="13"/>
-      <c r="D603" s="13"/>
-      <c r="E603" s="13" t="s">
+      <c r="C603" s="12"/>
+      <c r="D603" s="12"/>
+      <c r="E603" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F603" s="13"/>
-      <c r="G603" s="17">
+      <c r="F603" s="12"/>
+      <c r="G603" s="19">
         <v>6022017</v>
       </c>
-      <c r="H603" s="13"/>
+      <c r="H603" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="13"/>
-      <c r="B604" s="17" t="s">
+      <c r="B604" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="C604" s="13"/>
-      <c r="D604" s="13"/>
-      <c r="E604" s="13" t="s">
+      <c r="C604" s="12"/>
+      <c r="D604" s="12"/>
+      <c r="E604" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F604" s="13"/>
-      <c r="G604" s="17">
+      <c r="F604" s="12"/>
+      <c r="G604" s="19">
         <v>6072017</v>
       </c>
-      <c r="H604" s="13"/>
+      <c r="H604" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="13"/>
-      <c r="B605" s="17" t="s">
+      <c r="B605" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="C605" s="13"/>
-      <c r="D605" s="13"/>
-      <c r="E605" s="13" t="s">
+      <c r="C605" s="22"/>
+      <c r="D605" s="22"/>
+      <c r="E605" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F605" s="13"/>
-      <c r="G605" s="17">
+      <c r="F605" s="22"/>
+      <c r="G605" s="23">
         <v>2162017</v>
       </c>
-      <c r="H605" s="13"/>
+      <c r="H605" s="22" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="13"/>
-      <c r="B606" s="17" t="s">
+      <c r="B606" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="C606" s="13"/>
-      <c r="D606" s="13"/>
-      <c r="E606" s="13" t="s">
+      <c r="C606" s="22"/>
+      <c r="D606" s="22"/>
+      <c r="E606" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F606" s="13"/>
-      <c r="G606" s="17">
+      <c r="F606" s="22"/>
+      <c r="G606" s="23">
         <v>2272017</v>
       </c>
-      <c r="H606" s="13"/>
+      <c r="H606" s="22" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="13"/>
-      <c r="B607" s="17" t="s">
+      <c r="B607" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="C607" s="13"/>
-      <c r="D607" s="13"/>
-      <c r="E607" s="13" t="s">
+      <c r="C607" s="22"/>
+      <c r="D607" s="22"/>
+      <c r="E607" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F607" s="13"/>
-      <c r="G607" s="17">
+      <c r="F607" s="22"/>
+      <c r="G607" s="23">
         <v>3032017</v>
       </c>
-      <c r="H607" s="13"/>
+      <c r="H607" s="22" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="13"/>
-      <c r="B608" s="17" t="s">
+      <c r="B608" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="C608" s="13"/>
-      <c r="D608" s="13"/>
-      <c r="E608" s="13" t="s">
+      <c r="C608" s="22"/>
+      <c r="D608" s="22"/>
+      <c r="E608" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F608" s="13"/>
-      <c r="G608" s="17">
+      <c r="F608" s="22"/>
+      <c r="G608" s="23">
         <v>6082017</v>
       </c>
-      <c r="H608" s="13"/>
+      <c r="H608" s="22" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="13"/>
@@ -17486,132 +17526,190 @@
       <c r="H654" s="13"/>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B655" s="13" t="s">
+      <c r="B655" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E655" s="13" t="s">
+      <c r="C655" s="26"/>
+      <c r="D655" s="26"/>
+      <c r="E655" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G655" s="2">
+      <c r="F655" s="26"/>
+      <c r="G655" s="26">
         <v>4112017</v>
       </c>
+      <c r="H655" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B656" s="13" t="s">
+      <c r="B656" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="E656" s="13" t="s">
+      <c r="C656" s="27"/>
+      <c r="D656" s="27"/>
+      <c r="E656" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G656" s="2">
+      <c r="F656" s="27"/>
+      <c r="G656" s="27">
         <v>4182017</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B657" s="13" t="s">
+      <c r="H656" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B657" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="E657" s="13" t="s">
+      <c r="C657" s="26"/>
+      <c r="D657" s="26"/>
+      <c r="E657" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G657" s="2">
+      <c r="F657" s="26"/>
+      <c r="G657" s="26">
         <v>5042017</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B658" s="13" t="s">
+      <c r="H657" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B658" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="E658" s="13" t="s">
+      <c r="C658" s="27"/>
+      <c r="D658" s="27"/>
+      <c r="E658" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G658" s="2">
+      <c r="F658" s="27"/>
+      <c r="G658" s="27">
         <v>5302017</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B659" s="13" t="s">
+      <c r="H658" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B659" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="E659" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G659" s="2">
+      <c r="C659" s="29"/>
+      <c r="D659" s="29"/>
+      <c r="E659" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F659" s="29"/>
+      <c r="G659" s="29">
         <v>6062017</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B660" s="13" t="s">
+      <c r="H659" s="25"/>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B660" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="E660" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G660" s="2">
+      <c r="C660" s="29"/>
+      <c r="D660" s="29"/>
+      <c r="E660" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F660" s="29"/>
+      <c r="G660" s="29">
         <v>6122017</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B661" s="13" t="s">
+      <c r="H660" s="25"/>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B661" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="E661" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G661" s="2">
+      <c r="C661" s="29"/>
+      <c r="D661" s="29"/>
+      <c r="E661" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F661" s="29"/>
+      <c r="G661" s="29">
         <v>6122017</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B662" s="13" t="s">
+      <c r="H661" s="25"/>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B662" s="25" t="s">
         <v>930</v>
       </c>
-      <c r="E662" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G662" s="2">
+      <c r="C662" s="29"/>
+      <c r="D662" s="29"/>
+      <c r="E662" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F662" s="29"/>
+      <c r="G662" s="29">
         <v>6122017</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H662" s="25"/>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>42900</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B664" s="13" t="s">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B664" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E664" s="13" t="s">
+      <c r="C664" s="26"/>
+      <c r="D664" s="26"/>
+      <c r="E664" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G664" s="2">
+      <c r="F664" s="26"/>
+      <c r="G664" s="26">
         <v>4212017</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B665" s="13" t="s">
+      <c r="H664" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B665" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="E665" s="13" t="s">
+      <c r="C665" s="27"/>
+      <c r="D665" s="27"/>
+      <c r="E665" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G665" s="2">
+      <c r="F665" s="27"/>
+      <c r="G665" s="27">
         <v>5172017</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B666" s="13" t="s">
+      <c r="H665" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B666" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="E666" s="13" t="s">
+      <c r="C666" s="26"/>
+      <c r="D666" s="26"/>
+      <c r="E666" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G666" s="2">
+      <c r="F666" s="26"/>
+      <c r="G666" s="26">
         <v>5252017</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H666" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B667" s="13" t="s">
         <v>932</v>
       </c>
@@ -17622,7 +17720,7 @@
         <v>5312017</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B668" s="13" t="s">
         <v>933</v>
       </c>
@@ -17633,7 +17731,7 @@
         <v>6072017</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B669" s="13" t="s">
         <v>934</v>
       </c>
@@ -17644,7 +17742,7 @@
         <v>6092017</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B670" s="13" t="s">
         <v>935</v>
       </c>
@@ -17655,20 +17753,26 @@
         <v>6122017</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>42901</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B672" s="13" t="s">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B672" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="E672" s="13" t="s">
+      <c r="C672" s="26"/>
+      <c r="D672" s="26"/>
+      <c r="E672" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G672" s="2">
+      <c r="F672" s="26"/>
+      <c r="G672" s="26">
         <v>4132017</v>
+      </c>
+      <c r="H672" s="11" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -17829,29 +17933,41 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B689" s="13" t="s">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B689" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="E689" s="13" t="s">
+      <c r="C689" s="28"/>
+      <c r="D689" s="28"/>
+      <c r="E689" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G689" s="2">
+      <c r="F689" s="28"/>
+      <c r="G689" s="28">
         <v>5302017</v>
       </c>
-    </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B690" s="13" t="s">
+      <c r="H689" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B690" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="E690" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G690" s="2">
+      <c r="C690" s="26"/>
+      <c r="D690" s="26"/>
+      <c r="E690" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F690" s="26"/>
+      <c r="G690" s="26">
         <v>6132017</v>
       </c>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H690" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B691" s="13" t="s">
         <v>945</v>
       </c>
@@ -17862,7 +17978,7 @@
         <v>6162017</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B692" s="13" t="s">
         <v>946</v>
       </c>
@@ -17873,34 +17989,46 @@
         <v>6202017</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1">
         <v>42907</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B694" s="13" t="s">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B694" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="E694" s="13" t="s">
+      <c r="C694" s="26"/>
+      <c r="D694" s="26"/>
+      <c r="E694" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G694" s="2">
+      <c r="F694" s="26"/>
+      <c r="G694" s="26">
         <v>5042017</v>
       </c>
-    </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B695" s="13" t="s">
+      <c r="H694" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B695" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="E695" s="13" t="s">
+      <c r="C695" s="28"/>
+      <c r="D695" s="28"/>
+      <c r="E695" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G695" s="2">
+      <c r="F695" s="28"/>
+      <c r="G695" s="28">
         <v>6162017</v>
       </c>
-    </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H695" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B696" s="13" t="s">
         <v>949</v>
       </c>
@@ -17911,7 +18039,7 @@
         <v>5222017</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B697" s="13" t="s">
         <v>950</v>
       </c>
@@ -17922,7 +18050,7 @@
         <v>6082017</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B698" s="13" t="s">
         <v>951</v>
       </c>
@@ -17933,7 +18061,7 @@
         <v>6082017</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B699" s="13" t="s">
         <v>952</v>
       </c>
@@ -17944,7 +18072,7 @@
         <v>6122017</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B700" s="13" t="s">
         <v>953</v>
       </c>
@@ -17955,7 +18083,7 @@
         <v>6122017</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B701" s="13" t="s">
         <v>954</v>
       </c>
@@ -17966,12 +18094,12 @@
         <v>6152017</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1">
         <v>42908</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B703" s="13" t="s">
         <v>898</v>
       </c>
@@ -17982,7 +18110,7 @@
         <v>6162017</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B704" s="13" t="s">
         <v>955</v>
       </c>
@@ -17993,7 +18121,7 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B705" s="13" t="s">
         <v>956</v>
       </c>
@@ -18004,7 +18132,7 @@
         <v>6202017</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B706" s="13" t="s">
         <v>957</v>
       </c>
@@ -18015,7 +18143,7 @@
         <v>6202017</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B707" s="13" t="s">
         <v>958</v>
       </c>
@@ -18026,89 +18154,131 @@
         <v>6212017</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
-        <v>42909</v>
-      </c>
-    </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B709" s="13" t="s">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B709" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E709" s="13" t="s">
+      <c r="C709" s="28"/>
+      <c r="D709" s="28"/>
+      <c r="E709" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G709" s="2">
+      <c r="F709" s="28"/>
+      <c r="G709" s="28">
         <v>5012017</v>
       </c>
-    </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B710" s="13" t="s">
+      <c r="H709" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B710" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E710" s="13" t="s">
+      <c r="C710" s="28"/>
+      <c r="D710" s="28"/>
+      <c r="E710" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G710" s="2">
+      <c r="F710" s="28"/>
+      <c r="G710" s="28">
         <v>5082017</v>
       </c>
-    </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B711" s="13" t="s">
+      <c r="H710" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B711" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="E711" s="13" t="s">
+      <c r="C711" s="28"/>
+      <c r="D711" s="28"/>
+      <c r="E711" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G711" s="2">
+      <c r="F711" s="28"/>
+      <c r="G711" s="28">
         <v>5152017</v>
       </c>
-    </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B712" s="13" t="s">
+      <c r="H711" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B712" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="E712" s="13" t="s">
+      <c r="C712" s="27"/>
+      <c r="D712" s="27"/>
+      <c r="E712" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G712" s="2">
+      <c r="F712" s="27"/>
+      <c r="G712" s="27">
         <v>6202017</v>
       </c>
-    </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B713" s="13" t="s">
+      <c r="H712" s="22" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B713" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="E713" s="13" t="s">
+      <c r="C713" s="27"/>
+      <c r="D713" s="27"/>
+      <c r="E713" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G713" s="2">
+      <c r="F713" s="27"/>
+      <c r="G713" s="27">
         <v>6202017</v>
       </c>
-    </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B714" s="13" t="s">
+      <c r="H713" s="22" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B714" s="22" t="s">
         <v>963</v>
       </c>
-      <c r="E714" s="13" t="s">
+      <c r="C714" s="27"/>
+      <c r="D714" s="27"/>
+      <c r="E714" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G714" s="2">
+      <c r="F714" s="27"/>
+      <c r="G714" s="27">
         <v>6202017</v>
       </c>
-    </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B715" s="13" t="s">
+      <c r="H714" s="22" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B715" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="E715" s="13" t="s">
+      <c r="C715" s="27"/>
+      <c r="D715" s="27"/>
+      <c r="E715" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G715" s="2">
+      <c r="F715" s="27"/>
+      <c r="G715" s="27">
         <v>6212017</v>
       </c>
-    </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H715" s="22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B716" s="13" t="s">
         <v>965</v>
       </c>
@@ -18119,7 +18289,7 @@
         <v>2072017</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B717" s="13" t="s">
         <v>966</v>
       </c>
@@ -18130,7 +18300,7 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B718" s="13" t="s">
         <v>967</v>
       </c>
@@ -18141,7 +18311,7 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B719" s="13" t="s">
         <v>968</v>
       </c>
@@ -18152,7 +18322,7 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B720" s="13" t="s">
         <v>268</v>
       </c>
@@ -18163,7 +18333,7 @@
         <v>6202017</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B721" s="13" t="s">
         <v>944</v>
       </c>
@@ -18174,100 +18344,148 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>42912</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B723" s="13" t="s">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B723" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="E723" s="13" t="s">
+      <c r="C723" s="26"/>
+      <c r="D723" s="26"/>
+      <c r="E723" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G723" s="2">
+      <c r="F723" s="26"/>
+      <c r="G723" s="26">
         <v>2162017</v>
       </c>
-    </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B724" s="13" t="s">
+      <c r="H723" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B724" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="E724" s="13" t="s">
+      <c r="C724" s="26"/>
+      <c r="D724" s="26"/>
+      <c r="E724" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G724" s="2">
+      <c r="F724" s="26"/>
+      <c r="G724" s="26">
         <v>3032017</v>
       </c>
-    </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B725" s="13" t="s">
+      <c r="H724" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B725" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="E725" s="13" t="s">
+      <c r="C725" s="28"/>
+      <c r="D725" s="28"/>
+      <c r="E725" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G725" s="2">
+      <c r="F725" s="28"/>
+      <c r="G725" s="28">
         <v>5012017</v>
       </c>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B726" s="13" t="s">
+      <c r="H725" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B726" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E726" s="13" t="s">
+      <c r="C726" s="28"/>
+      <c r="D726" s="28"/>
+      <c r="E726" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G726" s="2">
+      <c r="F726" s="28"/>
+      <c r="G726" s="28">
         <v>5052017</v>
       </c>
-    </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B727" s="13" t="s">
+      <c r="H726" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B727" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E727" s="13" t="s">
+      <c r="C727" s="28"/>
+      <c r="D727" s="28"/>
+      <c r="E727" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G727" s="2">
+      <c r="F727" s="28"/>
+      <c r="G727" s="28">
         <v>5052017</v>
       </c>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B728" s="13" t="s">
+      <c r="H727" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B728" s="22" t="s">
         <v>970</v>
       </c>
-      <c r="E728" s="13" t="s">
+      <c r="C728" s="27"/>
+      <c r="D728" s="27"/>
+      <c r="E728" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G728" s="2">
+      <c r="F728" s="27"/>
+      <c r="G728" s="27">
         <v>5112017</v>
       </c>
-    </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B729" s="13" t="s">
+      <c r="H728" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B729" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E729" s="13" t="s">
+      <c r="C729" s="28"/>
+      <c r="D729" s="28"/>
+      <c r="E729" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G729" s="2">
+      <c r="F729" s="28"/>
+      <c r="G729" s="28">
         <v>5152017</v>
       </c>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B730" s="13" t="s">
+      <c r="H729" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B730" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="E730" s="13" t="s">
+      <c r="C730" s="27"/>
+      <c r="D730" s="27"/>
+      <c r="E730" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G730" s="2">
+      <c r="F730" s="27"/>
+      <c r="G730" s="27">
         <v>5302017</v>
       </c>
-    </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H730" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B731" s="13" t="s">
         <v>972</v>
       </c>
@@ -18278,7 +18496,7 @@
         <v>5182017</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B732" s="13" t="s">
         <v>973</v>
       </c>
@@ -18289,7 +18507,7 @@
         <v>6082017</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B733" s="13" t="s">
         <v>974</v>
       </c>
@@ -18300,7 +18518,7 @@
         <v>6192017</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B734" s="13" t="s">
         <v>975</v>
       </c>
@@ -18311,7 +18529,7 @@
         <v>6202017</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B735" s="13" t="s">
         <v>976</v>
       </c>
@@ -18322,7 +18540,7 @@
         <v>6232017</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B736" s="13" t="s">
         <v>977</v>
       </c>
@@ -18333,7 +18551,7 @@
         <v>6262017</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B737" s="13" t="s">
         <v>978</v>
       </c>
@@ -18344,89 +18562,131 @@
         <v>6232017</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
-        <v>42912</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B739" s="13" t="s">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B739" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="E739" s="13" t="s">
+      <c r="C739" s="28"/>
+      <c r="D739" s="28"/>
+      <c r="E739" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G739" s="2">
+      <c r="F739" s="28"/>
+      <c r="G739" s="28">
         <v>4262017</v>
       </c>
-    </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B740" s="13" t="s">
+      <c r="H739" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B740" s="12" t="s">
         <v>980</v>
       </c>
-      <c r="E740" s="13" t="s">
+      <c r="C740" s="28"/>
+      <c r="D740" s="28"/>
+      <c r="E740" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G740" s="2">
+      <c r="F740" s="28"/>
+      <c r="G740" s="28">
         <v>5312017</v>
       </c>
-    </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B741" s="13" t="s">
+      <c r="H740" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B741" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="E741" s="13" t="s">
+      <c r="C741" s="26"/>
+      <c r="D741" s="26"/>
+      <c r="E741" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G741" s="2">
+      <c r="F741" s="26"/>
+      <c r="G741" s="26">
         <v>5312017</v>
       </c>
-    </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B742" s="13" t="s">
+      <c r="H741" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B742" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="E742" s="13" t="s">
+      <c r="C742" s="26"/>
+      <c r="D742" s="26"/>
+      <c r="E742" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G742" s="2">
+      <c r="F742" s="26"/>
+      <c r="G742" s="26">
         <v>6082017</v>
       </c>
-    </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B743" s="13" t="s">
+      <c r="H742" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B743" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="E743" s="13" t="s">
+      <c r="C743" s="28"/>
+      <c r="D743" s="28"/>
+      <c r="E743" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G743" s="2">
+      <c r="F743" s="28"/>
+      <c r="G743" s="28">
         <v>6122017</v>
       </c>
-    </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B744" s="13" t="s">
+      <c r="H743" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B744" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E744" s="13" t="s">
+      <c r="C744" s="28"/>
+      <c r="D744" s="28"/>
+      <c r="E744" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G744" s="2">
+      <c r="F744" s="28"/>
+      <c r="G744" s="28">
         <v>6132017</v>
       </c>
-    </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B745" s="13" t="s">
+      <c r="H744" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B745" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="E745" s="13" t="s">
+      <c r="C745" s="27"/>
+      <c r="D745" s="27"/>
+      <c r="E745" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G745" s="2">
+      <c r="F745" s="27"/>
+      <c r="G745" s="27">
         <v>4142017</v>
       </c>
-    </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H745" s="22" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B746" s="13" t="s">
         <v>983</v>
       </c>
@@ -18437,7 +18697,7 @@
         <v>6012017</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B747" s="13" t="s">
         <v>984</v>
       </c>
@@ -18448,7 +18708,7 @@
         <v>6122017</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B748" s="13" t="s">
         <v>985</v>
       </c>
@@ -18459,7 +18719,7 @@
         <v>6212017</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B749" s="13" t="s">
         <v>986</v>
       </c>
@@ -18470,7 +18730,7 @@
         <v>6212017</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B750" s="13" t="s">
         <v>987</v>
       </c>
@@ -18481,7 +18741,7 @@
         <v>6232017</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B751" s="13" t="s">
         <v>988</v>
       </c>
@@ -18492,400 +18752,309 @@
         <v>6232017</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1">
-        <v>42913</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B753" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="E753" s="13" t="s">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B753" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="C753" s="27"/>
+      <c r="D753" s="27"/>
+      <c r="E753" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="G753" s="2">
-        <v>4262017</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B754" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="E754" s="13" t="s">
+      <c r="F753" s="27"/>
+      <c r="G753" s="27">
+        <v>6122017</v>
+      </c>
+      <c r="H753" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B754" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="C754" s="28"/>
+      <c r="D754" s="28"/>
+      <c r="E754" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G754" s="2">
+      <c r="F754" s="28"/>
+      <c r="G754" s="28">
+        <v>6022017</v>
+      </c>
+      <c r="H754" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B755" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="C755" s="27"/>
+      <c r="D755" s="27"/>
+      <c r="E755" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="F755" s="27"/>
+      <c r="G755" s="27">
+        <v>6142017</v>
+      </c>
+      <c r="H755" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B756" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C756" s="28"/>
+      <c r="D756" s="28"/>
+      <c r="E756" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="F756" s="28"/>
+      <c r="G756" s="28">
+        <v>4132017</v>
+      </c>
+      <c r="H756" s="12" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B757" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="E757" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G757" s="2">
+        <v>6272017</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A758" s="1">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B759" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="C759" s="26"/>
+      <c r="D759" s="26"/>
+      <c r="E759" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="F759" s="26"/>
+      <c r="G759" s="26">
+        <v>3022017</v>
+      </c>
+      <c r="H759" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B760" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="C760" s="27"/>
+      <c r="D760" s="27"/>
+      <c r="E760" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="F760" s="27"/>
+      <c r="G760" s="27">
+        <v>3142017</v>
+      </c>
+      <c r="H760" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B761" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="C761" s="27"/>
+      <c r="D761" s="27"/>
+      <c r="E761" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="F761" s="27"/>
+      <c r="G761" s="27">
+        <v>5122017</v>
+      </c>
+      <c r="H761" s="22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B762" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="C762" s="28"/>
+      <c r="D762" s="28"/>
+      <c r="E762" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="F762" s="28"/>
+      <c r="G762" s="28">
+        <v>5182017</v>
+      </c>
+      <c r="H762" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B763" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C763" s="28"/>
+      <c r="D763" s="28"/>
+      <c r="E763" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="F763" s="28"/>
+      <c r="G763" s="28">
+        <v>5302017</v>
+      </c>
+      <c r="H763" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B764" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="E764" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G764" s="2">
         <v>5312017</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B755" s="13" t="s">
-        <v>981</v>
-      </c>
-      <c r="E755" s="13" t="s">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B765" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="E765" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="G755" s="2">
-        <v>5312017</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B756" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="E756" s="13" t="s">
+      <c r="G765" s="2">
+        <v>6022017</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B766" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="E766" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="G756" s="2">
-        <v>6082017</v>
-      </c>
-    </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B757" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="E757" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G757" s="2">
-        <v>6122017</v>
-      </c>
-    </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B758" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E758" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G758" s="2">
-        <v>6132017</v>
-      </c>
-    </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B759" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="E759" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G759" s="2">
-        <v>4142017</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B760" s="13" t="s">
-        <v>983</v>
-      </c>
-      <c r="E760" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G760" s="2">
-        <v>6012017</v>
-      </c>
-    </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B761" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="E761" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G761" s="2">
-        <v>6122017</v>
-      </c>
-    </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B762" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="E762" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G762" s="2">
-        <v>6212017</v>
-      </c>
-    </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B763" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="E763" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G763" s="2">
-        <v>6232017</v>
-      </c>
-    </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B764" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E764" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G764" s="2">
-        <v>6232017</v>
-      </c>
-    </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B765" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E765" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A766" s="1">
-        <v>42914</v>
-      </c>
-    </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G766" s="2">
+        <v>6052017</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B767" s="13" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="E767" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G767" s="2">
-        <v>6122017</v>
-      </c>
-    </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6052017</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B768" s="13" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="E768" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G768" s="2">
-        <v>6022017</v>
-      </c>
-    </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6062017</v>
+      </c>
+    </row>
+    <row r="769" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B769" s="13" t="s">
-        <v>737</v>
+        <v>1002</v>
       </c>
       <c r="E769" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G769" s="2">
-        <v>6142017</v>
-      </c>
-    </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6072017</v>
+      </c>
+    </row>
+    <row r="770" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B770" s="13" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="E770" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G770" s="2">
-        <v>4132017</v>
-      </c>
-    </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6092017</v>
+      </c>
+    </row>
+    <row r="771" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B771" s="13" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="E771" s="13" t="s">
-        <v>23</v>
+        <v>765</v>
       </c>
       <c r="G771" s="2">
-        <v>6272017</v>
-      </c>
-    </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A772" s="1">
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="772" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B772" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E772" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G772" s="2">
+        <v>6122017</v>
+      </c>
+    </row>
+    <row r="773" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B773" s="13" t="s">
-        <v>993</v>
+        <v>863</v>
       </c>
       <c r="E773" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G773" s="2">
-        <v>3022017</v>
-      </c>
-    </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="774" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B774" s="13" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="E774" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G774" s="2">
-        <v>3142017</v>
-      </c>
-    </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6152017</v>
+      </c>
+    </row>
+    <row r="775" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B775" s="13" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="E775" s="13" t="s">
         <v>765</v>
       </c>
       <c r="G775" s="2">
-        <v>5122017</v>
-      </c>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B776" s="13" t="s">
-        <v>996</v>
-      </c>
-      <c r="E776" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G776" s="2">
-        <v>5182017</v>
-      </c>
-    </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B777" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E777" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G777" s="2">
-        <v>5302017</v>
-      </c>
-    </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B778" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="E778" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G778" s="2">
-        <v>5312017</v>
-      </c>
-    </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B779" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="E779" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G779" s="2">
-        <v>6022017</v>
-      </c>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B780" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="E780" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G780" s="2">
-        <v>6052017</v>
-      </c>
-    </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B781" s="13" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E781" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G781" s="2">
-        <v>6052017</v>
-      </c>
-    </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B782" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E782" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G782" s="2">
-        <v>6062017</v>
-      </c>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B783" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E783" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G783" s="2">
-        <v>6072017</v>
-      </c>
-    </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B784" s="13" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E784" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G784" s="2">
-        <v>6092017</v>
-      </c>
-    </row>
-    <row r="785" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B785" s="13" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E785" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G785" s="2">
-        <v>6122017</v>
-      </c>
-    </row>
-    <row r="786" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B786" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E786" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G786" s="2">
-        <v>6122017</v>
-      </c>
-    </row>
-    <row r="787" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B787" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E787" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G787" s="2">
-        <v>6152017</v>
-      </c>
-    </row>
-    <row r="788" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B788" s="13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E788" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G788" s="2">
-        <v>6152017</v>
-      </c>
-    </row>
-    <row r="789" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B789" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E789" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G789" s="2">
         <v>6192017</v>
       </c>
     </row>

--- a/errors/Error Report Inpatient.xlsx
+++ b/errors/Error Report Inpatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1057">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -3181,6 +3181,12 @@
   </si>
   <si>
     <t>Affiliation Not Found</t>
+  </si>
+  <si>
+    <t>No Dates</t>
+  </si>
+  <si>
+    <t>Deny Skilled Pay Unskilled Rerun</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3252,6 +3258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3265,7 +3277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3337,6 +3349,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3645,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D385" sqref="D385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13024,69 +13042,75 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="13"/>
-      <c r="B403" s="13" t="s">
+      <c r="B403" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="C403" s="13">
+      <c r="C403" s="12">
         <v>906519</v>
       </c>
-      <c r="D403" s="13">
+      <c r="D403" s="12">
         <v>905915</v>
       </c>
-      <c r="E403" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F403" s="13" t="s">
+      <c r="E403" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F403" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="G403" s="13" t="s">
+      <c r="G403" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="H403" s="13"/>
+      <c r="H403" s="12" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="13"/>
-      <c r="B404" s="13" t="s">
+      <c r="B404" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C404" s="13">
+      <c r="C404" s="11">
         <v>921419</v>
       </c>
-      <c r="D404" s="13">
+      <c r="D404" s="11">
         <v>920758</v>
       </c>
-      <c r="E404" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F404" s="13" t="s">
+      <c r="E404" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F404" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G404" s="13">
+      <c r="G404" s="11">
         <v>5122017</v>
       </c>
-      <c r="H404" s="13"/>
+      <c r="H404" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="13"/>
-      <c r="B405" s="13" t="s">
+      <c r="B405" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C405" s="13">
+      <c r="C405" s="11">
         <v>916638</v>
       </c>
-      <c r="D405" s="13">
+      <c r="D405" s="11">
         <v>905915</v>
       </c>
-      <c r="E405" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F405" s="13" t="s">
+      <c r="E405" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F405" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="G405" s="13">
+      <c r="G405" s="11">
         <v>4272017</v>
       </c>
-      <c r="H405" s="13"/>
+      <c r="H405" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
@@ -13310,179 +13334,195 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="13"/>
-      <c r="B416" s="13" t="s">
+      <c r="B416" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="C416" s="13">
+      <c r="C416" s="12">
         <v>937361</v>
       </c>
-      <c r="D416" s="13">
+      <c r="D416" s="12">
         <v>936526</v>
       </c>
-      <c r="E416" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F416" s="13" t="s">
+      <c r="E416" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F416" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="G416" s="13">
+      <c r="G416" s="12">
         <v>3052017</v>
       </c>
-      <c r="H416" s="13"/>
+      <c r="H416" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="13"/>
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="C417" s="13">
+      <c r="C417" s="11">
         <v>937376</v>
       </c>
-      <c r="D417" s="13">
+      <c r="D417" s="11">
         <v>922959</v>
       </c>
-      <c r="E417" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F417" s="13" t="s">
+      <c r="E417" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F417" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="G417" s="13">
+      <c r="G417" s="11">
         <v>3022017</v>
       </c>
-      <c r="H417" s="13"/>
+      <c r="H417" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
-      <c r="B418" s="13" t="s">
+      <c r="B418" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="C418" s="13">
+      <c r="C418" s="12">
         <v>937109</v>
       </c>
-      <c r="D418" s="13">
+      <c r="D418" s="12">
         <v>943297</v>
       </c>
-      <c r="E418" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F418" s="13" t="s">
+      <c r="E418" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F418" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="G418" s="13">
+      <c r="G418" s="12">
         <v>3092017</v>
       </c>
-      <c r="H418" s="13"/>
+      <c r="H418" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C419" s="13">
+      <c r="C419" s="11">
         <v>903552</v>
       </c>
-      <c r="D419" s="13">
+      <c r="D419" s="11">
         <v>939320</v>
       </c>
-      <c r="E419" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F419" s="13" t="s">
+      <c r="E419" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F419" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G419" s="13">
+      <c r="G419" s="11">
         <v>4032017</v>
       </c>
-      <c r="H419" s="13"/>
+      <c r="H419" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
-      <c r="B420" s="13" t="s">
+      <c r="B420" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="C420" s="13">
+      <c r="C420" s="11">
         <v>927490</v>
       </c>
-      <c r="D420" s="13">
+      <c r="D420" s="11">
         <v>936519</v>
       </c>
-      <c r="E420" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F420" s="13" t="s">
+      <c r="E420" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F420" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="G420" s="13">
+      <c r="G420" s="11">
         <v>4102017</v>
       </c>
-      <c r="H420" s="13"/>
+      <c r="H420" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
-      <c r="B421" s="13" t="s">
+      <c r="B421" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C421" s="13">
+      <c r="C421" s="11">
         <v>936386</v>
       </c>
-      <c r="D421" s="13">
+      <c r="D421" s="11">
         <v>918938</v>
       </c>
-      <c r="E421" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F421" s="13" t="s">
+      <c r="E421" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F421" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="G421" s="13">
+      <c r="G421" s="11">
         <v>4192017</v>
       </c>
-      <c r="H421" s="13"/>
+      <c r="H421" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
-      <c r="B422" s="13" t="s">
+      <c r="B422" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C422" s="13">
+      <c r="C422" s="11">
         <v>935040</v>
       </c>
-      <c r="D422" s="13">
+      <c r="D422" s="11">
         <v>930695</v>
       </c>
-      <c r="E422" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F422" s="13" t="s">
+      <c r="E422" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F422" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="G422" s="13">
+      <c r="G422" s="11">
         <v>4302017</v>
       </c>
-      <c r="H422" s="13"/>
+      <c r="H422" s="11" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
-      <c r="B423" s="13" t="s">
+      <c r="B423" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="C423" s="13">
+      <c r="C423" s="11">
         <v>935040</v>
       </c>
-      <c r="D423" s="13">
+      <c r="D423" s="11">
         <v>930697</v>
       </c>
-      <c r="E423" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F423" s="13" t="s">
+      <c r="E423" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F423" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="G423" s="13">
+      <c r="G423" s="11">
         <v>5082017</v>
       </c>
-      <c r="H423" s="13"/>
+      <c r="H423" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
@@ -13590,25 +13630,27 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="C429" s="13">
+      <c r="C429" s="11">
         <v>922021</v>
       </c>
-      <c r="D429" s="13">
+      <c r="D429" s="11">
         <v>930994</v>
       </c>
-      <c r="E429" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F429" s="13" t="s">
+      <c r="E429" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F429" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="G429" s="13">
+      <c r="G429" s="11">
         <v>4092017</v>
       </c>
-      <c r="H429" s="13"/>
+      <c r="H429" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
@@ -13816,35 +13858,39 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
-      <c r="B439" s="17" t="s">
+      <c r="B439" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="C439" s="13"/>
-      <c r="D439" s="13"/>
-      <c r="E439" s="13" t="s">
+      <c r="C439" s="11"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F439" s="13"/>
-      <c r="G439" s="17">
+      <c r="F439" s="11"/>
+      <c r="G439" s="18">
         <v>3142017</v>
       </c>
-      <c r="H439" s="13"/>
+      <c r="H439" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
-      <c r="B440" s="17" t="s">
+      <c r="B440" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13" t="s">
+      <c r="C440" s="11"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F440" s="13"/>
-      <c r="G440" s="17">
+      <c r="F440" s="11"/>
+      <c r="G440" s="18">
         <v>4182017</v>
       </c>
-      <c r="H440" s="13"/>
+      <c r="H440" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
@@ -13938,7 +13984,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>42881</v>
+        <v>42884</v>
       </c>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -13950,67 +13996,75 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
-      <c r="B447" s="17" t="s">
+      <c r="B447" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="C447" s="13"/>
-      <c r="D447" s="13"/>
-      <c r="E447" s="13" t="s">
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F447" s="13"/>
-      <c r="G447" s="17">
+      <c r="F447" s="12"/>
+      <c r="G447" s="19">
         <v>3222017</v>
       </c>
-      <c r="H447" s="13"/>
+      <c r="H447" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
-      <c r="B448" s="17" t="s">
+      <c r="B448" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C448" s="13"/>
-      <c r="D448" s="13"/>
-      <c r="E448" s="13" t="s">
+      <c r="C448" s="11"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F448" s="13"/>
-      <c r="G448" s="17">
+      <c r="F448" s="11"/>
+      <c r="G448" s="18">
         <v>4202017</v>
       </c>
-      <c r="H448" s="13"/>
+      <c r="H448" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
-      <c r="B449" s="17" t="s">
+      <c r="B449" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="C449" s="13"/>
-      <c r="D449" s="13"/>
-      <c r="E449" s="13" t="s">
+      <c r="C449" s="11"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F449" s="13"/>
-      <c r="G449" s="13">
+      <c r="F449" s="11"/>
+      <c r="G449" s="11">
         <v>4262017</v>
       </c>
-      <c r="H449" s="13"/>
+      <c r="H449" s="11" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
-      <c r="B450" s="17" t="s">
+      <c r="B450" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13" t="s">
+      <c r="C450" s="11"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F450" s="13"/>
-      <c r="G450" s="17">
+      <c r="F450" s="11"/>
+      <c r="G450" s="18">
         <v>5122017</v>
       </c>
-      <c r="H450" s="13"/>
+      <c r="H450" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
@@ -14134,35 +14188,39 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="C458" s="13"/>
-      <c r="D458" s="13"/>
-      <c r="E458" s="13" t="s">
+      <c r="C458" s="11"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F458" s="13"/>
-      <c r="G458" s="17">
+      <c r="F458" s="11"/>
+      <c r="G458" s="18">
         <v>2152017</v>
       </c>
-      <c r="H458" s="13"/>
+      <c r="H458" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="13"/>
-      <c r="B459" s="17" t="s">
+      <c r="B459" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="C459" s="13"/>
-      <c r="D459" s="13"/>
-      <c r="E459" s="13" t="s">
+      <c r="C459" s="11"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F459" s="13"/>
-      <c r="G459" s="17">
+      <c r="F459" s="11"/>
+      <c r="G459" s="18">
         <v>3292017</v>
       </c>
-      <c r="H459" s="13"/>
+      <c r="H459" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
@@ -14430,147 +14488,165 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="13"/>
-      <c r="B475" s="17" t="s">
+      <c r="B475" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C475" s="13"/>
-      <c r="D475" s="13"/>
-      <c r="E475" s="13" t="s">
+      <c r="C475" s="11"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F475" s="13"/>
-      <c r="G475" s="17">
+      <c r="F475" s="11"/>
+      <c r="G475" s="18">
         <v>4242017</v>
       </c>
-      <c r="H475" s="13"/>
+      <c r="H475" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="13"/>
-      <c r="B476" s="17" t="s">
+      <c r="B476" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C476" s="13"/>
-      <c r="D476" s="13"/>
-      <c r="E476" s="13" t="s">
+      <c r="C476" s="12"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F476" s="13"/>
-      <c r="G476" s="17">
+      <c r="F476" s="12"/>
+      <c r="G476" s="19">
         <v>4142017</v>
       </c>
-      <c r="H476" s="13"/>
+      <c r="H476" s="12" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
-      <c r="B477" s="17" t="s">
+      <c r="B477" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C477" s="13"/>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13" t="s">
+      <c r="C477" s="11"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F477" s="13"/>
-      <c r="G477" s="17">
+      <c r="F477" s="11"/>
+      <c r="G477" s="18">
         <v>3202017</v>
       </c>
-      <c r="H477" s="13"/>
+      <c r="H477" s="11" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="13"/>
-      <c r="B478" s="17" t="s">
+      <c r="B478" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="C478" s="13"/>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13" t="s">
+      <c r="C478" s="26"/>
+      <c r="D478" s="26"/>
+      <c r="E478" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="F478" s="13"/>
-      <c r="G478" s="17">
+      <c r="F478" s="26"/>
+      <c r="G478" s="25">
         <v>3162017</v>
       </c>
-      <c r="H478" s="13"/>
+      <c r="H478" s="26" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="13"/>
-      <c r="B479" s="17" t="s">
+      <c r="B479" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="C479" s="13"/>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13" t="s">
+      <c r="C479" s="11"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F479" s="13"/>
-      <c r="G479" s="17">
+      <c r="F479" s="11"/>
+      <c r="G479" s="18">
         <v>4102017</v>
       </c>
-      <c r="H479" s="13"/>
+      <c r="H479" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
-      <c r="B480" s="17" t="s">
+      <c r="B480" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C480" s="13"/>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13" t="s">
+      <c r="C480" s="11"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F480" s="13"/>
-      <c r="G480" s="17">
+      <c r="F480" s="11"/>
+      <c r="G480" s="18">
         <v>4172017</v>
       </c>
-      <c r="H480" s="13"/>
+      <c r="H480" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="13"/>
-      <c r="B481" s="17" t="s">
+      <c r="B481" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13" t="s">
+      <c r="C481" s="11"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F481" s="13"/>
-      <c r="G481" s="17">
+      <c r="F481" s="11"/>
+      <c r="G481" s="18">
         <v>5032017</v>
       </c>
-      <c r="H481" s="13"/>
+      <c r="H481" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
-      <c r="B482" s="17" t="s">
+      <c r="B482" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="C482" s="13"/>
-      <c r="D482" s="13"/>
-      <c r="E482" s="13" t="s">
+      <c r="C482" s="21"/>
+      <c r="D482" s="21"/>
+      <c r="E482" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="F482" s="13"/>
-      <c r="G482" s="17">
+      <c r="F482" s="21"/>
+      <c r="G482" s="20">
         <v>5112017</v>
       </c>
-      <c r="H482" s="13"/>
+      <c r="H482" s="21" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
-      <c r="B483" s="17" t="s">
+      <c r="B483" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C483" s="13"/>
-      <c r="D483" s="13"/>
-      <c r="E483" s="13" t="s">
+      <c r="C483" s="26"/>
+      <c r="D483" s="26"/>
+      <c r="E483" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="F483" s="13"/>
-      <c r="G483" s="17">
+      <c r="F483" s="26"/>
+      <c r="G483" s="25">
         <v>5192017</v>
       </c>
-      <c r="H483" s="13"/>
+      <c r="H483" s="26" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
@@ -14587,7 +14663,7 @@
         <v>5272017</v>
       </c>
       <c r="H484" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -14766,35 +14842,39 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="13"/>
-      <c r="B495" s="17" t="s">
+      <c r="B495" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="C495" s="13"/>
-      <c r="D495" s="13"/>
-      <c r="E495" s="13" t="s">
+      <c r="C495" s="11"/>
+      <c r="D495" s="11"/>
+      <c r="E495" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F495" s="13"/>
-      <c r="G495" s="17">
+      <c r="F495" s="11"/>
+      <c r="G495" s="18">
         <v>5112017</v>
       </c>
-      <c r="H495" s="13"/>
+      <c r="H495" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="13"/>
-      <c r="B496" s="17" t="s">
+      <c r="B496" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="C496" s="13"/>
-      <c r="D496" s="13"/>
-      <c r="E496" s="13" t="s">
+      <c r="C496" s="11"/>
+      <c r="D496" s="11"/>
+      <c r="E496" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F496" s="13"/>
-      <c r="G496" s="17">
+      <c r="F496" s="11"/>
+      <c r="G496" s="18">
         <v>4132017</v>
       </c>
-      <c r="H496" s="13"/>
+      <c r="H496" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="13"/>
